--- a/Grid_5x5/Solutions/Solution_NDP_S052/Spreadsheet/VIS17_PuTAss_CapaRestNo_InterlYes_v04.xlsx
+++ b/Grid_5x5/Solutions/Solution_NDP_S052/Spreadsheet/VIS17_PuTAss_CapaRestNo_InterlYes_v04.xlsx
@@ -2596,7 +2596,7 @@
         <v>200</v>
       </c>
       <c r="C40" s="39">
-        <v>22.660478970924537</v>
+        <v>22.66047897092453</v>
       </c>
       <c r="D40" s="22" t="s">
         <v>129</v>
@@ -2637,7 +2637,7 @@
         <v>202</v>
       </c>
       <c r="C42" s="39">
-        <v>0.93312619047618994</v>
+        <v>0.93312619047619072</v>
       </c>
       <c r="D42" s="22" t="s">
         <v>42</v>
@@ -8241,13 +8241,13 @@
         <v>15.504</v>
       </c>
       <c r="L22" s="72">
-        <v>98.816000000000003</v>
+        <v>98.815999999999988</v>
       </c>
       <c r="M22" s="72">
-        <v>31.441000000000003</v>
+        <v>31.440999999999999</v>
       </c>
       <c r="N22" s="72">
-        <v>114.32000000000001</v>
+        <v>114.32</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
@@ -8285,7 +8285,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="72">
-        <v>114.32000000000001</v>
+        <v>114.32</v>
       </c>
       <c r="N23" s="72">
         <v>0</v>
@@ -8490,10 +8490,10 @@
         <v>70</v>
       </c>
       <c r="K28" s="72">
-        <v>92.966000000000008</v>
+        <v>92.965999999999994</v>
       </c>
       <c r="L28" s="72">
-        <v>61.038999999999987</v>
+        <v>61.039000000000001</v>
       </c>
       <c r="M28" s="72">
         <v>96.292000000000002</v>
@@ -8534,16 +8534,16 @@
         <v>70</v>
       </c>
       <c r="K29" s="72">
-        <v>58.24199999999999</v>
+        <v>58.242000000000004</v>
       </c>
       <c r="L29" s="72">
-        <v>116.05600000000004</v>
+        <v>116.05599999999997</v>
       </c>
       <c r="M29" s="72">
         <v>37.948999999999998</v>
       </c>
       <c r="N29" s="72">
-        <v>174.29800000000003</v>
+        <v>174.29799999999997</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
@@ -8584,7 +8584,7 @@
         <v>130.10000000000002</v>
       </c>
       <c r="M30" s="72">
-        <v>44.198000000000008</v>
+        <v>44.197999999999993</v>
       </c>
       <c r="N30" s="72">
         <v>141.42500000000001</v>
@@ -8628,7 +8628,7 @@
         <v>108.99299999999999</v>
       </c>
       <c r="M31" s="72">
-        <v>32.431999999999995</v>
+        <v>32.432000000000002</v>
       </c>
       <c r="N31" s="72">
         <v>122.196</v>
@@ -8742,10 +8742,10 @@
         <v>70</v>
       </c>
       <c r="K34" s="72">
-        <v>21.908999999999999</v>
+        <v>21.909000000000002</v>
       </c>
       <c r="L34" s="72">
-        <v>87.996000000000009</v>
+        <v>87.995999999999995</v>
       </c>
       <c r="M34" s="72">
         <v>6.8879999999999999</v>
@@ -8786,16 +8786,16 @@
         <v>70</v>
       </c>
       <c r="K35" s="72">
-        <v>29.903999999999996</v>
+        <v>29.904000000000003</v>
       </c>
       <c r="L35" s="72">
-        <v>103.81200000000001</v>
+        <v>103.81199999999998</v>
       </c>
       <c r="M35" s="72">
         <v>6.093</v>
       </c>
       <c r="N35" s="72">
-        <v>133.71600000000001</v>
+        <v>133.71599999999998</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
@@ -8833,13 +8833,13 @@
         <v>36.58</v>
       </c>
       <c r="L36" s="72">
-        <v>109.05100000000003</v>
+        <v>109.051</v>
       </c>
       <c r="M36" s="72">
         <v>24.664999999999999</v>
       </c>
       <c r="N36" s="72">
-        <v>145.63100000000003</v>
+        <v>145.631</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
@@ -8874,16 +8874,16 @@
         <v>70</v>
       </c>
       <c r="K37" s="72">
-        <v>108.41499999999996</v>
+        <v>108.41499999999999</v>
       </c>
       <c r="L37" s="72">
-        <v>55.762000000000057</v>
+        <v>55.762</v>
       </c>
       <c r="M37" s="72">
         <v>89.869</v>
       </c>
       <c r="N37" s="72">
-        <v>164.17700000000002</v>
+        <v>164.17699999999999</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
@@ -8921,13 +8921,13 @@
         <v>56.751000000000005</v>
       </c>
       <c r="L38" s="72">
-        <v>123.70699999999997</v>
+        <v>123.70699999999999</v>
       </c>
       <c r="M38" s="72">
         <v>40.47</v>
       </c>
       <c r="N38" s="72">
-        <v>180.45799999999997</v>
+        <v>180.458</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
@@ -8968,7 +8968,7 @@
         <v>135.25</v>
       </c>
       <c r="M39" s="72">
-        <v>45.207999999999998</v>
+        <v>45.208000000000006</v>
       </c>
       <c r="N39" s="72">
         <v>146.279</v>
@@ -9009,13 +9009,13 @@
         <v>12.777000000000001</v>
       </c>
       <c r="L40" s="72">
-        <v>113.342</v>
+        <v>113.34200000000003</v>
       </c>
       <c r="M40" s="72">
         <v>32.936999999999998</v>
       </c>
       <c r="N40" s="72">
-        <v>126.119</v>
+        <v>126.11900000000003</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
@@ -9053,7 +9053,7 @@
         <v>0</v>
       </c>
       <c r="M41" s="72">
-        <v>126.119</v>
+        <v>126.11900000000003</v>
       </c>
       <c r="N41" s="72">
         <v>0</v>
@@ -9082,7 +9082,7 @@
         <v>70</v>
       </c>
       <c r="K42" s="72">
-        <v>94.231000000000009</v>
+        <v>94.230999999999995</v>
       </c>
       <c r="L42" s="72">
         <v>0</v>
@@ -9091,7 +9091,7 @@
         <v>0</v>
       </c>
       <c r="N42" s="72">
-        <v>94.231000000000009</v>
+        <v>94.230999999999995</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
@@ -9261,13 +9261,13 @@
         <v>77.697000000000003</v>
       </c>
       <c r="L46" s="72">
-        <v>55.606999999999999</v>
+        <v>55.606999999999971</v>
       </c>
       <c r="M46" s="72">
         <v>88.746000000000009</v>
       </c>
       <c r="N46" s="72">
-        <v>133.304</v>
+        <v>133.30399999999997</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
@@ -9302,13 +9302,13 @@
         <v>70</v>
       </c>
       <c r="K47" s="72">
-        <v>57.966999999999999</v>
+        <v>57.967000000000006</v>
       </c>
       <c r="L47" s="72">
-        <v>101.05799999999998</v>
+        <v>101.05799999999996</v>
       </c>
       <c r="M47" s="72">
-        <v>32.246000000000002</v>
+        <v>32.245999999999995</v>
       </c>
       <c r="N47" s="72">
         <v>159.02499999999998</v>
@@ -9510,7 +9510,7 @@
         <v>70</v>
       </c>
       <c r="K52" s="72">
-        <v>21.472999999999999</v>
+        <v>21.473000000000003</v>
       </c>
       <c r="L52" s="72">
         <v>86.827000000000012</v>
@@ -9554,7 +9554,7 @@
         <v>70</v>
       </c>
       <c r="K53" s="72">
-        <v>29.021000000000001</v>
+        <v>29.021000000000004</v>
       </c>
       <c r="L53" s="72">
         <v>102.25000000000001</v>
@@ -13781,13 +13781,13 @@
         <v>26.834</v>
       </c>
       <c r="L152" s="72">
-        <v>172.71700000000001</v>
+        <v>172.71699999999998</v>
       </c>
       <c r="M152" s="72">
         <v>13.23</v>
       </c>
       <c r="N152" s="72">
-        <v>199.55100000000002</v>
+        <v>199.55099999999999</v>
       </c>
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.25">
@@ -13822,7 +13822,7 @@
         <v>70</v>
       </c>
       <c r="K153" s="72">
-        <v>37.79</v>
+        <v>37.789999999999992</v>
       </c>
       <c r="L153" s="72">
         <v>148.10100000000003</v>
@@ -13869,13 +13869,13 @@
         <v>24.618000000000002</v>
       </c>
       <c r="L154" s="72">
-        <v>28.190000000000005</v>
+        <v>28.189999999999991</v>
       </c>
       <c r="M154" s="72">
-        <v>157.70099999999999</v>
+        <v>157.70100000000002</v>
       </c>
       <c r="N154" s="72">
-        <v>52.808000000000007</v>
+        <v>52.807999999999993</v>
       </c>
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.25">
@@ -13913,13 +13913,13 @@
         <v>16.765000000000001</v>
       </c>
       <c r="L155" s="72">
-        <v>37.133000000000003</v>
+        <v>37.132999999999996</v>
       </c>
       <c r="M155" s="72">
         <v>15.675000000000001</v>
       </c>
       <c r="N155" s="72">
-        <v>53.898000000000003</v>
+        <v>53.897999999999996</v>
       </c>
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.25">
@@ -13957,13 +13957,13 @@
         <v>2.2919999999999998</v>
       </c>
       <c r="L156" s="72">
-        <v>31.812999999999988</v>
+        <v>31.812999999999995</v>
       </c>
       <c r="M156" s="72">
-        <v>22.085000000000001</v>
+        <v>22.084999999999997</v>
       </c>
       <c r="N156" s="72">
-        <v>34.10499999999999</v>
+        <v>34.104999999999997</v>
       </c>
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.25">
@@ -14001,13 +14001,13 @@
         <v>1.736</v>
       </c>
       <c r="L157" s="72">
-        <v>18.841000000000001</v>
+        <v>18.840999999999998</v>
       </c>
       <c r="M157" s="72">
         <v>15.263999999999999</v>
       </c>
       <c r="N157" s="72">
-        <v>20.577000000000002</v>
+        <v>20.576999999999998</v>
       </c>
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.25">
@@ -14045,7 +14045,7 @@
         <v>0</v>
       </c>
       <c r="M158" s="72">
-        <v>20.577000000000002</v>
+        <v>20.576999999999998</v>
       </c>
       <c r="N158" s="72">
         <v>0</v>
@@ -14118,16 +14118,16 @@
         <v>70</v>
       </c>
       <c r="K160" s="72">
-        <v>44.194000000000003</v>
+        <v>44.193999999999996</v>
       </c>
       <c r="L160" s="72">
-        <v>31.903000000000006</v>
+        <v>31.902999999999999</v>
       </c>
       <c r="M160" s="72">
         <v>3.456</v>
       </c>
       <c r="N160" s="72">
-        <v>76.097000000000008</v>
+        <v>76.096999999999994</v>
       </c>
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.25">
@@ -14162,7 +14162,7 @@
         <v>70</v>
       </c>
       <c r="K161" s="72">
-        <v>24.425999999999998</v>
+        <v>24.426000000000002</v>
       </c>
       <c r="L161" s="72">
         <v>70.641999999999996</v>
@@ -14206,10 +14206,10 @@
         <v>70</v>
       </c>
       <c r="K162" s="72">
-        <v>36.692</v>
+        <v>36.691999999999993</v>
       </c>
       <c r="L162" s="72">
-        <v>70.233000000000004</v>
+        <v>70.233000000000018</v>
       </c>
       <c r="M162" s="72">
         <v>24.835000000000001</v>
@@ -14253,13 +14253,13 @@
         <v>23.404000000000003</v>
       </c>
       <c r="L163" s="72">
-        <v>17.186</v>
+        <v>17.185999999999993</v>
       </c>
       <c r="M163" s="72">
         <v>89.739000000000004</v>
       </c>
       <c r="N163" s="72">
-        <v>40.590000000000003</v>
+        <v>40.589999999999996</v>
       </c>
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.25">
@@ -14294,7 +14294,7 @@
         <v>70</v>
       </c>
       <c r="K164" s="72">
-        <v>13.435999999999998</v>
+        <v>13.436</v>
       </c>
       <c r="L164" s="72">
         <v>30.018999999999998</v>
@@ -14458,7 +14458,7 @@
         <v>70</v>
       </c>
       <c r="K168" s="72">
-        <v>28.183999999999997</v>
+        <v>28.184000000000005</v>
       </c>
       <c r="L168" s="72">
         <v>0</v>
@@ -14467,7 +14467,7 @@
         <v>0</v>
       </c>
       <c r="N168" s="72">
-        <v>28.183999999999997</v>
+        <v>28.184000000000005</v>
       </c>
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.25">
@@ -14546,10 +14546,10 @@
         <v>70</v>
       </c>
       <c r="K170" s="72">
-        <v>23.900000000000002</v>
+        <v>23.9</v>
       </c>
       <c r="L170" s="72">
-        <v>55.641000000000005</v>
+        <v>55.641000000000012</v>
       </c>
       <c r="M170" s="72">
         <v>4.3109999999999999</v>
@@ -14596,7 +14596,7 @@
         <v>58.670000000000016</v>
       </c>
       <c r="M171" s="72">
-        <v>20.870999999999995</v>
+        <v>20.871000000000002</v>
       </c>
       <c r="N171" s="72">
         <v>94.853000000000009</v>
@@ -14634,13 +14634,13 @@
         <v>70</v>
       </c>
       <c r="K172" s="72">
-        <v>22.573000000000008</v>
+        <v>22.572999999999997</v>
       </c>
       <c r="L172" s="72">
-        <v>15.498999999999995</v>
+        <v>15.499000000000006</v>
       </c>
       <c r="M172" s="72">
-        <v>79.354000000000013</v>
+        <v>79.353999999999999</v>
       </c>
       <c r="N172" s="72">
         <v>38.072000000000003</v>
@@ -14842,7 +14842,7 @@
         <v>70</v>
       </c>
       <c r="K177" s="72">
-        <v>26.806999999999999</v>
+        <v>26.807000000000002</v>
       </c>
       <c r="L177" s="72">
         <v>0</v>
@@ -14851,7 +14851,7 @@
         <v>0</v>
       </c>
       <c r="N177" s="72">
-        <v>26.806999999999999</v>
+        <v>26.807000000000002</v>
       </c>
     </row>
     <row r="178" spans="1:14" x14ac:dyDescent="0.25">
@@ -20608,7 +20608,7 @@
         <v>14.818999999999996</v>
       </c>
       <c r="M312" s="72">
-        <v>96.29</v>
+        <v>96.289999999999992</v>
       </c>
       <c r="N312" s="72">
         <v>37.947999999999993</v>
@@ -20722,7 +20722,7 @@
         <v>70</v>
       </c>
       <c r="K315" s="72">
-        <v>78.583999999999989</v>
+        <v>78.584000000000003</v>
       </c>
       <c r="L315" s="72">
         <v>0</v>
@@ -20731,7 +20731,7 @@
         <v>0</v>
       </c>
       <c r="N315" s="72">
-        <v>78.583999999999989</v>
+        <v>78.584000000000003</v>
       </c>
     </row>
     <row r="316" spans="1:14" x14ac:dyDescent="0.25">
@@ -20766,7 +20766,7 @@
         <v>70</v>
       </c>
       <c r="K316" s="72">
-        <v>17.885999999999999</v>
+        <v>17.886000000000003</v>
       </c>
       <c r="L316" s="72">
         <v>71.695999999999998</v>
@@ -20775,7 +20775,7 @@
         <v>6.8879999999999999</v>
       </c>
       <c r="N316" s="72">
-        <v>89.581999999999994</v>
+        <v>89.582000000000008</v>
       </c>
     </row>
     <row r="317" spans="1:14" x14ac:dyDescent="0.25">
@@ -20810,16 +20810,16 @@
         <v>70</v>
       </c>
       <c r="K317" s="72">
-        <v>24.972999999999999</v>
+        <v>24.973000000000003</v>
       </c>
       <c r="L317" s="72">
-        <v>83.49</v>
+        <v>83.490000000000023</v>
       </c>
       <c r="M317" s="72">
         <v>6.0919999999999996</v>
       </c>
       <c r="N317" s="72">
-        <v>108.46299999999999</v>
+        <v>108.46300000000002</v>
       </c>
     </row>
     <row r="318" spans="1:14" x14ac:dyDescent="0.25">
@@ -20854,7 +20854,7 @@
         <v>70</v>
       </c>
       <c r="K318" s="72">
-        <v>20.817999999999998</v>
+        <v>20.818000000000001</v>
       </c>
       <c r="L318" s="72">
         <v>83.798000000000002</v>
@@ -20898,16 +20898,16 @@
         <v>70</v>
       </c>
       <c r="K319" s="72">
-        <v>25.717000000000002</v>
+        <v>25.716999999999999</v>
       </c>
       <c r="L319" s="72">
-        <v>14.750999999999994</v>
+        <v>14.751000000000005</v>
       </c>
       <c r="M319" s="72">
         <v>89.865000000000009</v>
       </c>
       <c r="N319" s="72">
-        <v>40.467999999999996</v>
+        <v>40.468000000000004</v>
       </c>
     </row>
     <row r="320" spans="1:14" x14ac:dyDescent="0.25">
@@ -20948,7 +20948,7 @@
         <v>0</v>
       </c>
       <c r="M320" s="72">
-        <v>40.467999999999996</v>
+        <v>40.468000000000004</v>
       </c>
       <c r="N320" s="72">
         <v>0</v>
@@ -21106,7 +21106,7 @@
         <v>70</v>
       </c>
       <c r="K324" s="72">
-        <v>24.567999999999998</v>
+        <v>24.568000000000001</v>
       </c>
       <c r="L324" s="72">
         <v>82.637000000000015</v>
@@ -21150,16 +21150,16 @@
         <v>70</v>
       </c>
       <c r="K325" s="72">
-        <v>20.648999999999997</v>
+        <v>20.649000000000001</v>
       </c>
       <c r="L325" s="72">
-        <v>82.814000000000021</v>
+        <v>82.813999999999993</v>
       </c>
       <c r="M325" s="72">
         <v>24.390999999999998</v>
       </c>
       <c r="N325" s="72">
-        <v>103.46300000000002</v>
+        <v>103.46299999999999</v>
       </c>
     </row>
     <row r="326" spans="1:14" x14ac:dyDescent="0.25">
@@ -21194,10 +21194,10 @@
         <v>70</v>
       </c>
       <c r="K326" s="72">
-        <v>17.525000000000002</v>
+        <v>17.524999999999999</v>
       </c>
       <c r="L326" s="72">
-        <v>14.718999999999998</v>
+        <v>14.719000000000001</v>
       </c>
       <c r="M326" s="72">
         <v>88.744</v>
@@ -21402,7 +21402,7 @@
         <v>70</v>
       </c>
       <c r="K331" s="72">
-        <v>24.180000000000003</v>
+        <v>24.180000000000007</v>
       </c>
       <c r="L331" s="72">
         <v>82.070999999999998</v>
@@ -21455,7 +21455,7 @@
         <v>24.170999999999999</v>
       </c>
       <c r="N332" s="72">
-        <v>102.13500000000002</v>
+        <v>102.13500000000001</v>
       </c>
     </row>
     <row r="333" spans="1:14" x14ac:dyDescent="0.25">
@@ -24837,7 +24837,7 @@
         <v>0</v>
       </c>
       <c r="M412" s="72">
-        <v>83.015000000000001</v>
+        <v>83.015000000000015</v>
       </c>
       <c r="N412" s="72">
         <v>0</v>
@@ -25045,13 +25045,13 @@
         <v>5.7210000000000001</v>
       </c>
       <c r="L417" s="72">
-        <v>65.737999999999985</v>
+        <v>65.738</v>
       </c>
       <c r="M417" s="72">
         <v>42.635999999999996</v>
       </c>
       <c r="N417" s="72">
-        <v>71.458999999999989</v>
+        <v>71.459000000000003</v>
       </c>
     </row>
     <row r="418" spans="1:14" x14ac:dyDescent="0.25">
@@ -25089,13 +25089,13 @@
         <v>4.4799999999999995</v>
       </c>
       <c r="L418" s="72">
-        <v>40.958999999999996</v>
+        <v>40.95900000000001</v>
       </c>
       <c r="M418" s="72">
         <v>30.5</v>
       </c>
       <c r="N418" s="72">
-        <v>45.438999999999993</v>
+        <v>45.439000000000007</v>
       </c>
     </row>
     <row r="419" spans="1:14" x14ac:dyDescent="0.25">
@@ -25133,7 +25133,7 @@
         <v>0</v>
       </c>
       <c r="M419" s="72">
-        <v>45.438999999999993</v>
+        <v>45.439000000000007</v>
       </c>
       <c r="N419" s="72">
         <v>0</v>
@@ -25212,7 +25212,7 @@
         <v>20.503</v>
       </c>
       <c r="M421" s="72">
-        <v>6.3310000000000004</v>
+        <v>6.3309999999999995</v>
       </c>
       <c r="N421" s="72">
         <v>58.290999999999997</v>
@@ -25253,13 +25253,13 @@
         <v>24.616</v>
       </c>
       <c r="L422" s="72">
-        <v>9.9950000000000045</v>
+        <v>9.9949999999999974</v>
       </c>
       <c r="M422" s="72">
-        <v>48.296000000000006</v>
+        <v>48.295999999999992</v>
       </c>
       <c r="N422" s="72">
-        <v>34.611000000000004</v>
+        <v>34.610999999999997</v>
       </c>
     </row>
     <row r="423" spans="1:14" x14ac:dyDescent="0.25">
@@ -25294,16 +25294,16 @@
         <v>70</v>
       </c>
       <c r="K423" s="72">
-        <v>16.763999999999999</v>
+        <v>16.764000000000003</v>
       </c>
       <c r="L423" s="72">
-        <v>27.321000000000002</v>
+        <v>27.321000000000005</v>
       </c>
       <c r="M423" s="72">
         <v>7.29</v>
       </c>
       <c r="N423" s="72">
-        <v>44.085000000000001</v>
+        <v>44.085000000000008</v>
       </c>
     </row>
     <row r="424" spans="1:14" x14ac:dyDescent="0.25">
@@ -25344,7 +25344,7 @@
         <v>25.651</v>
       </c>
       <c r="M424" s="72">
-        <v>18.433999999999997</v>
+        <v>18.434000000000001</v>
       </c>
       <c r="N424" s="72">
         <v>27.942</v>
@@ -25385,13 +25385,13 @@
         <v>1.736</v>
       </c>
       <c r="L425" s="72">
-        <v>15.549999999999997</v>
+        <v>15.55</v>
       </c>
       <c r="M425" s="72">
-        <v>12.391999999999999</v>
+        <v>12.392000000000001</v>
       </c>
       <c r="N425" s="72">
-        <v>17.285999999999998</v>
+        <v>17.286000000000001</v>
       </c>
     </row>
     <row r="426" spans="1:14" x14ac:dyDescent="0.25">
@@ -25429,7 +25429,7 @@
         <v>0</v>
       </c>
       <c r="M426" s="72">
-        <v>17.285999999999998</v>
+        <v>17.286000000000001</v>
       </c>
       <c r="N426" s="72">
         <v>0</v>
@@ -25458,7 +25458,7 @@
         <v>70</v>
       </c>
       <c r="K427" s="72">
-        <v>24.425999999999998</v>
+        <v>24.426000000000002</v>
       </c>
       <c r="L427" s="72">
         <v>0</v>
@@ -25467,7 +25467,7 @@
         <v>0</v>
       </c>
       <c r="N427" s="72">
-        <v>24.425999999999998</v>
+        <v>24.426000000000002</v>
       </c>
     </row>
     <row r="428" spans="1:14" x14ac:dyDescent="0.25">
@@ -25552,7 +25552,7 @@
         <v>9.7929999999999993</v>
       </c>
       <c r="M429" s="72">
-        <v>45.110000000000014</v>
+        <v>45.11</v>
       </c>
       <c r="N429" s="72">
         <v>33.194000000000003</v>
@@ -25590,10 +25590,10 @@
         <v>70</v>
       </c>
       <c r="K430" s="72">
-        <v>13.434999999999999</v>
+        <v>13.435</v>
       </c>
       <c r="L430" s="72">
-        <v>26.125999999999994</v>
+        <v>26.125999999999991</v>
       </c>
       <c r="M430" s="72">
         <v>7.0679999999999996</v>
@@ -25681,13 +25681,13 @@
         <v>1.6440000000000001</v>
       </c>
       <c r="L432" s="72">
-        <v>13.961</v>
+        <v>13.961000000000002</v>
       </c>
       <c r="M432" s="72">
-        <v>11.235000000000001</v>
+        <v>11.234999999999999</v>
       </c>
       <c r="N432" s="72">
-        <v>15.605</v>
+        <v>15.605000000000002</v>
       </c>
     </row>
     <row r="433" spans="1:14" x14ac:dyDescent="0.25">
@@ -25754,7 +25754,7 @@
         <v>70</v>
       </c>
       <c r="K434" s="72">
-        <v>23.898000000000003</v>
+        <v>23.898</v>
       </c>
       <c r="L434" s="72">
         <v>0</v>
@@ -25763,7 +25763,7 @@
         <v>0</v>
       </c>
       <c r="N434" s="72">
-        <v>23.898000000000003</v>
+        <v>23.898</v>
       </c>
     </row>
     <row r="435" spans="1:14" x14ac:dyDescent="0.25">
@@ -25804,7 +25804,7 @@
         <v>17.745999999999995</v>
       </c>
       <c r="M435" s="72">
-        <v>6.1519999999999992</v>
+        <v>6.1520000000000001</v>
       </c>
       <c r="N435" s="72">
         <v>53.926999999999992</v>
@@ -29690,7 +29690,7 @@
         <v>70</v>
       </c>
       <c r="K527" s="72">
-        <v>48.273000000000003</v>
+        <v>48.272999999999996</v>
       </c>
       <c r="L527" s="72">
         <v>126.21700000000001</v>
@@ -29734,16 +29734,16 @@
         <v>70</v>
       </c>
       <c r="K528" s="72">
-        <v>66.939000000000007</v>
+        <v>66.938999999999993</v>
       </c>
       <c r="L528" s="72">
-        <v>35.148999999999987</v>
+        <v>35.149000000000029</v>
       </c>
       <c r="M528" s="72">
         <v>139.34100000000001</v>
       </c>
       <c r="N528" s="72">
-        <v>102.08799999999999</v>
+        <v>102.08800000000002</v>
       </c>
     </row>
     <row r="529" spans="1:14" x14ac:dyDescent="0.25">
@@ -29781,13 +29781,13 @@
         <v>7.8229999999999995</v>
       </c>
       <c r="L529" s="72">
-        <v>87.798999999999992</v>
+        <v>87.799000000000007</v>
       </c>
       <c r="M529" s="72">
-        <v>14.288999999999998</v>
+        <v>14.289</v>
       </c>
       <c r="N529" s="72">
-        <v>95.621999999999986</v>
+        <v>95.622</v>
       </c>
     </row>
     <row r="530" spans="1:14" x14ac:dyDescent="0.25">
@@ -29942,16 +29942,16 @@
         <v>70</v>
       </c>
       <c r="K533" s="72">
-        <v>94.796999999999997</v>
+        <v>94.797000000000025</v>
       </c>
       <c r="L533" s="72">
-        <v>40.353000000000037</v>
+        <v>40.35299999999998</v>
       </c>
       <c r="M533" s="72">
         <v>5.1619999999999999</v>
       </c>
       <c r="N533" s="72">
-        <v>135.15000000000003</v>
+        <v>135.15</v>
       </c>
     </row>
     <row r="534" spans="1:14" x14ac:dyDescent="0.25">
@@ -29989,13 +29989,13 @@
         <v>36.97</v>
       </c>
       <c r="L534" s="72">
-        <v>105.16300000000001</v>
+        <v>105.16300000000004</v>
       </c>
       <c r="M534" s="72">
-        <v>29.987000000000002</v>
+        <v>29.986999999999995</v>
       </c>
       <c r="N534" s="72">
-        <v>142.13300000000001</v>
+        <v>142.13300000000004</v>
       </c>
     </row>
     <row r="535" spans="1:14" x14ac:dyDescent="0.25">
@@ -30033,13 +30033,13 @@
         <v>65.102999999999994</v>
       </c>
       <c r="L535" s="72">
-        <v>30.387000000000015</v>
+        <v>30.387</v>
       </c>
       <c r="M535" s="72">
         <v>111.74600000000001</v>
       </c>
       <c r="N535" s="72">
-        <v>95.490000000000009</v>
+        <v>95.49</v>
       </c>
     </row>
     <row r="536" spans="1:14" x14ac:dyDescent="0.25">
@@ -30074,7 +30074,7 @@
         <v>70</v>
       </c>
       <c r="K536" s="72">
-        <v>19.243000000000002</v>
+        <v>19.242999999999999</v>
       </c>
       <c r="L536" s="72">
         <v>83.746000000000009</v>
@@ -30194,7 +30194,7 @@
         <v>70</v>
       </c>
       <c r="K539" s="72">
-        <v>41.338000000000001</v>
+        <v>41.337999999999994</v>
       </c>
       <c r="L539" s="72">
         <v>0</v>
@@ -30203,7 +30203,7 @@
         <v>0</v>
       </c>
       <c r="N539" s="72">
-        <v>41.338000000000001</v>
+        <v>41.337999999999994</v>
       </c>
     </row>
     <row r="540" spans="1:14" x14ac:dyDescent="0.25">
@@ -30238,16 +30238,16 @@
         <v>70</v>
       </c>
       <c r="K540" s="72">
-        <v>84.533999999999978</v>
+        <v>84.53400000000002</v>
       </c>
       <c r="L540" s="72">
-        <v>36.301000000000002</v>
+        <v>36.300999999999988</v>
       </c>
       <c r="M540" s="72">
         <v>5.0369999999999999</v>
       </c>
       <c r="N540" s="72">
-        <v>120.83499999999998</v>
+        <v>120.83500000000001</v>
       </c>
     </row>
     <row r="541" spans="1:14" x14ac:dyDescent="0.25">
@@ -30282,10 +30282,10 @@
         <v>70</v>
       </c>
       <c r="K541" s="72">
-        <v>35.772000000000006</v>
+        <v>35.771999999999998</v>
       </c>
       <c r="L541" s="72">
-        <v>101.99999999999999</v>
+        <v>102</v>
       </c>
       <c r="M541" s="72">
         <v>18.835000000000001</v>
@@ -30332,7 +30332,7 @@
         <v>29.578000000000003</v>
       </c>
       <c r="M542" s="72">
-        <v>108.194</v>
+        <v>108.19400000000002</v>
       </c>
       <c r="N542" s="72">
         <v>87.893000000000001</v>
@@ -30373,13 +30373,13 @@
         <v>11.108000000000001</v>
       </c>
       <c r="L543" s="72">
-        <v>76.562000000000012</v>
+        <v>76.561999999999998</v>
       </c>
       <c r="M543" s="72">
         <v>11.331</v>
       </c>
       <c r="N543" s="72">
-        <v>87.670000000000016</v>
+        <v>87.67</v>
       </c>
     </row>
     <row r="544" spans="1:14" x14ac:dyDescent="0.25">
@@ -30534,16 +30534,16 @@
         <v>70</v>
       </c>
       <c r="K547" s="72">
-        <v>80.759000000000015</v>
+        <v>80.758999999999986</v>
       </c>
       <c r="L547" s="72">
-        <v>35.270999999999987</v>
+        <v>35.271000000000001</v>
       </c>
       <c r="M547" s="72">
         <v>4.95</v>
       </c>
       <c r="N547" s="72">
-        <v>116.03</v>
+        <v>116.02999999999999</v>
       </c>
     </row>
     <row r="548" spans="1:14" x14ac:dyDescent="0.25">
@@ -34725,13 +34725,13 @@
         <v>49.447000000000003</v>
       </c>
       <c r="L646" s="72">
-        <v>90.899999999999977</v>
+        <v>90.9</v>
       </c>
       <c r="M646" s="72">
-        <v>33.247</v>
+        <v>33.247000000000007</v>
       </c>
       <c r="N646" s="72">
-        <v>140.34699999999998</v>
+        <v>140.34700000000001</v>
       </c>
     </row>
     <row r="647" spans="1:14" x14ac:dyDescent="0.25">
@@ -34766,7 +34766,7 @@
         <v>70</v>
       </c>
       <c r="K647" s="72">
-        <v>83.979000000000013</v>
+        <v>83.978999999999999</v>
       </c>
       <c r="L647" s="72">
         <v>19.731000000000009</v>
@@ -34775,7 +34775,7 @@
         <v>120.61600000000001</v>
       </c>
       <c r="N647" s="72">
-        <v>103.71000000000002</v>
+        <v>103.71000000000001</v>
       </c>
     </row>
     <row r="648" spans="1:14" x14ac:dyDescent="0.25">
@@ -34810,7 +34810,7 @@
         <v>70</v>
       </c>
       <c r="K648" s="72">
-        <v>9.2050000000000001</v>
+        <v>9.2050000000000018</v>
       </c>
       <c r="L648" s="72">
         <v>70.212000000000003</v>
@@ -34857,13 +34857,13 @@
         <v>4.8520000000000003</v>
       </c>
       <c r="L649" s="72">
-        <v>23.198999999999998</v>
+        <v>23.199000000000002</v>
       </c>
       <c r="M649" s="72">
         <v>56.218000000000004</v>
       </c>
       <c r="N649" s="72">
-        <v>28.050999999999998</v>
+        <v>28.051000000000002</v>
       </c>
     </row>
     <row r="650" spans="1:14" x14ac:dyDescent="0.25">
@@ -34901,7 +34901,7 @@
         <v>0</v>
       </c>
       <c r="M650" s="72">
-        <v>28.050999999999998</v>
+        <v>28.051000000000002</v>
       </c>
       <c r="N650" s="72">
         <v>0</v>
@@ -34930,7 +34930,7 @@
         <v>70</v>
       </c>
       <c r="K651" s="72">
-        <v>38.396999999999998</v>
+        <v>38.397000000000006</v>
       </c>
       <c r="L651" s="72">
         <v>0</v>
@@ -34939,7 +34939,7 @@
         <v>0</v>
       </c>
       <c r="N651" s="72">
-        <v>38.396999999999998</v>
+        <v>38.397000000000006</v>
       </c>
     </row>
     <row r="652" spans="1:14" x14ac:dyDescent="0.25">
@@ -34974,10 +34974,10 @@
         <v>70</v>
       </c>
       <c r="K652" s="72">
-        <v>80.027000000000001</v>
+        <v>80.027000000000015</v>
       </c>
       <c r="L652" s="72">
-        <v>33.400999999999996</v>
+        <v>33.400999999999982</v>
       </c>
       <c r="M652" s="72">
         <v>4.9960000000000004</v>
@@ -35024,7 +35024,7 @@
         <v>89.726000000000028</v>
       </c>
       <c r="M653" s="72">
-        <v>23.701999999999998</v>
+        <v>23.702000000000002</v>
       </c>
       <c r="N653" s="72">
         <v>144.26600000000002</v>
@@ -35062,16 +35062,16 @@
         <v>70</v>
       </c>
       <c r="K654" s="72">
-        <v>83.060999999999993</v>
+        <v>83.061000000000007</v>
       </c>
       <c r="L654" s="72">
         <v>37.125999999999991</v>
       </c>
       <c r="M654" s="72">
-        <v>107.14000000000001</v>
+        <v>107.14</v>
       </c>
       <c r="N654" s="72">
-        <v>120.18699999999998</v>
+        <v>120.187</v>
       </c>
     </row>
     <row r="655" spans="1:14" x14ac:dyDescent="0.25">
@@ -35153,13 +35153,13 @@
         <v>4.6959999999999997</v>
       </c>
       <c r="L656" s="72">
-        <v>30.529000000000003</v>
+        <v>30.528999999999996</v>
       </c>
       <c r="M656" s="72">
-        <v>73.584999999999994</v>
+        <v>73.585000000000008</v>
       </c>
       <c r="N656" s="72">
-        <v>35.225000000000001</v>
+        <v>35.224999999999994</v>
       </c>
     </row>
     <row r="657" spans="1:14" x14ac:dyDescent="0.25">
@@ -35197,7 +35197,7 @@
         <v>0</v>
       </c>
       <c r="M657" s="72">
-        <v>35.225000000000001</v>
+        <v>35.224999999999994</v>
       </c>
       <c r="N657" s="72">
         <v>0</v>
@@ -35226,7 +35226,7 @@
         <v>70</v>
       </c>
       <c r="K658" s="72">
-        <v>37.822999999999993</v>
+        <v>37.823</v>
       </c>
       <c r="L658" s="72">
         <v>0</v>
@@ -35235,7 +35235,7 @@
         <v>0</v>
       </c>
       <c r="N658" s="72">
-        <v>37.822999999999993</v>
+        <v>37.823</v>
       </c>
     </row>
     <row r="659" spans="1:14" x14ac:dyDescent="0.25">
@@ -35273,13 +35273,13 @@
         <v>78.484000000000009</v>
       </c>
       <c r="L659" s="72">
-        <v>32.84099999999998</v>
+        <v>32.841000000000008</v>
       </c>
       <c r="M659" s="72">
         <v>4.9820000000000002</v>
       </c>
       <c r="N659" s="72">
-        <v>111.32499999999999</v>
+        <v>111.32500000000002</v>
       </c>
     </row>
     <row r="660" spans="1:14" x14ac:dyDescent="0.25">
@@ -35314,13 +35314,13 @@
         <v>70</v>
       </c>
       <c r="K660" s="72">
-        <v>41.9</v>
+        <v>41.900000000000006</v>
       </c>
       <c r="L660" s="72">
         <v>89.316999999999979</v>
       </c>
       <c r="M660" s="72">
-        <v>22.007999999999999</v>
+        <v>22.008000000000003</v>
       </c>
       <c r="N660" s="72">
         <v>131.21699999999998</v>
@@ -38822,16 +38822,16 @@
         <v>70</v>
       </c>
       <c r="K743" s="72">
-        <v>135.40899999999999</v>
+        <v>135.40900000000002</v>
       </c>
       <c r="L743" s="72">
-        <v>135.80200000000008</v>
+        <v>135.80199999999994</v>
       </c>
       <c r="M743" s="72">
         <v>1.4929999999999999</v>
       </c>
       <c r="N743" s="72">
-        <v>271.21100000000007</v>
+        <v>271.21099999999996</v>
       </c>
     </row>
     <row r="744" spans="1:14" x14ac:dyDescent="0.25">
@@ -38869,13 +38869,13 @@
         <v>61.856999999999999</v>
       </c>
       <c r="L744" s="72">
-        <v>210.58700000000002</v>
+        <v>210.58699999999996</v>
       </c>
       <c r="M744" s="72">
         <v>60.623999999999995</v>
       </c>
       <c r="N744" s="72">
-        <v>272.44400000000002</v>
+        <v>272.44399999999996</v>
       </c>
     </row>
     <row r="745" spans="1:14" x14ac:dyDescent="0.25">
@@ -38913,13 +38913,13 @@
         <v>92.688999999999993</v>
       </c>
       <c r="L745" s="72">
-        <v>203.01999999999995</v>
+        <v>203.02</v>
       </c>
       <c r="M745" s="72">
         <v>69.424000000000007</v>
       </c>
       <c r="N745" s="72">
-        <v>295.70899999999995</v>
+        <v>295.709</v>
       </c>
     </row>
     <row r="746" spans="1:14" x14ac:dyDescent="0.25">
@@ -38954,16 +38954,16 @@
         <v>70</v>
       </c>
       <c r="K746" s="72">
-        <v>97.651000000000025</v>
+        <v>97.65100000000001</v>
       </c>
       <c r="L746" s="72">
-        <v>98.803999999999988</v>
+        <v>98.803999999999974</v>
       </c>
       <c r="M746" s="72">
-        <v>196.90499999999997</v>
+        <v>196.90500000000003</v>
       </c>
       <c r="N746" s="72">
-        <v>196.45500000000001</v>
+        <v>196.45499999999998</v>
       </c>
     </row>
     <row r="747" spans="1:14" x14ac:dyDescent="0.25">
@@ -39001,13 +39001,13 @@
         <v>46.940000000000005</v>
       </c>
       <c r="L747" s="72">
-        <v>161.62599999999998</v>
+        <v>161.626</v>
       </c>
       <c r="M747" s="72">
-        <v>34.829000000000001</v>
+        <v>34.828999999999994</v>
       </c>
       <c r="N747" s="72">
-        <v>208.56599999999997</v>
+        <v>208.566</v>
       </c>
     </row>
     <row r="748" spans="1:14" x14ac:dyDescent="0.25">
@@ -39051,7 +39051,7 @@
         <v>59.602000000000004</v>
       </c>
       <c r="N748" s="72">
-        <v>200.92500000000001</v>
+        <v>200.92499999999998</v>
       </c>
     </row>
     <row r="749" spans="1:14" x14ac:dyDescent="0.25">
@@ -39089,13 +39089,13 @@
         <v>2.6229999999999998</v>
       </c>
       <c r="L749" s="72">
-        <v>94.998000000000005</v>
+        <v>94.99799999999999</v>
       </c>
       <c r="M749" s="72">
-        <v>105.92699999999999</v>
+        <v>105.92700000000001</v>
       </c>
       <c r="N749" s="72">
-        <v>97.621000000000009</v>
+        <v>97.620999999999995</v>
       </c>
     </row>
     <row r="750" spans="1:14" x14ac:dyDescent="0.25">
@@ -39133,7 +39133,7 @@
         <v>0</v>
       </c>
       <c r="M750" s="72">
-        <v>97.621000000000009</v>
+        <v>97.620999999999995</v>
       </c>
       <c r="N750" s="72">
         <v>0</v>
@@ -39209,13 +39209,13 @@
         <v>52.613</v>
       </c>
       <c r="L752" s="72">
-        <v>55.40500000000003</v>
+        <v>55.405000000000001</v>
       </c>
       <c r="M752" s="72">
         <v>0.61</v>
       </c>
       <c r="N752" s="72">
-        <v>108.01800000000003</v>
+        <v>108.018</v>
       </c>
     </row>
     <row r="753" spans="1:14" x14ac:dyDescent="0.25">
@@ -39294,10 +39294,10 @@
         <v>70</v>
       </c>
       <c r="K754" s="72">
-        <v>60.087999999999994</v>
+        <v>60.088000000000008</v>
       </c>
       <c r="L754" s="72">
-        <v>95.116000000000014</v>
+        <v>95.116</v>
       </c>
       <c r="M754" s="72">
         <v>28.484999999999999</v>
@@ -39338,10 +39338,10 @@
         <v>70</v>
       </c>
       <c r="K755" s="72">
-        <v>44.14800000000001</v>
+        <v>44.147999999999996</v>
       </c>
       <c r="L755" s="72">
-        <v>47.912000000000006</v>
+        <v>47.91200000000002</v>
       </c>
       <c r="M755" s="72">
         <v>107.29200000000002</v>
@@ -39385,13 +39385,13 @@
         <v>22.463999999999999</v>
       </c>
       <c r="L756" s="72">
-        <v>70.512</v>
+        <v>70.512000000000015</v>
       </c>
       <c r="M756" s="72">
         <v>21.548000000000002</v>
       </c>
       <c r="N756" s="72">
-        <v>92.975999999999999</v>
+        <v>92.976000000000013</v>
       </c>
     </row>
     <row r="757" spans="1:14" x14ac:dyDescent="0.25">
@@ -39429,13 +39429,13 @@
         <v>17.731000000000002</v>
       </c>
       <c r="L757" s="72">
-        <v>56.124000000000002</v>
+        <v>56.124000000000017</v>
       </c>
       <c r="M757" s="72">
         <v>36.852000000000004</v>
       </c>
       <c r="N757" s="72">
-        <v>73.855000000000004</v>
+        <v>73.855000000000018</v>
       </c>
     </row>
     <row r="758" spans="1:14" x14ac:dyDescent="0.25">
@@ -39546,7 +39546,7 @@
         <v>70</v>
       </c>
       <c r="K760" s="72">
-        <v>44.085000000000008</v>
+        <v>44.085000000000001</v>
       </c>
       <c r="L760" s="72">
         <v>0</v>
@@ -39555,7 +39555,7 @@
         <v>0</v>
       </c>
       <c r="N760" s="72">
-        <v>44.085000000000008</v>
+        <v>44.085000000000001</v>
       </c>
     </row>
     <row r="761" spans="1:14" x14ac:dyDescent="0.25">
@@ -39593,13 +39593,13 @@
         <v>40.429000000000002</v>
       </c>
       <c r="L761" s="72">
-        <v>43.60499999999999</v>
+        <v>43.605000000000018</v>
       </c>
       <c r="M761" s="72">
         <v>0.48</v>
       </c>
       <c r="N761" s="72">
-        <v>84.033999999999992</v>
+        <v>84.03400000000002</v>
       </c>
     </row>
     <row r="762" spans="1:14" x14ac:dyDescent="0.25">
@@ -39634,10 +39634,10 @@
         <v>70</v>
       </c>
       <c r="K762" s="72">
-        <v>35.919000000000004</v>
+        <v>35.918999999999997</v>
       </c>
       <c r="L762" s="72">
-        <v>65.600999999999999</v>
+        <v>65.601000000000013</v>
       </c>
       <c r="M762" s="72">
         <v>18.433</v>
@@ -39678,13 +39678,13 @@
         <v>70</v>
       </c>
       <c r="K763" s="72">
-        <v>54.409000000000006</v>
+        <v>54.408999999999999</v>
       </c>
       <c r="L763" s="72">
-        <v>79.088000000000008</v>
+        <v>79.088000000000022</v>
       </c>
       <c r="M763" s="72">
-        <v>22.431999999999999</v>
+        <v>22.432000000000002</v>
       </c>
       <c r="N763" s="72">
         <v>133.49700000000001</v>
@@ -45438,16 +45438,16 @@
         <v>70</v>
       </c>
       <c r="K898" s="72">
-        <v>29.825000000000003</v>
+        <v>29.824999999999999</v>
       </c>
       <c r="L898" s="72">
-        <v>81.466000000000008</v>
+        <v>81.465999999999994</v>
       </c>
       <c r="M898" s="72">
-        <v>38.478000000000002</v>
+        <v>38.477999999999994</v>
       </c>
       <c r="N898" s="72">
-        <v>111.29100000000001</v>
+        <v>111.291</v>
       </c>
     </row>
     <row r="899" spans="1:14" x14ac:dyDescent="0.25">
@@ -45485,13 +45485,13 @@
         <v>58.186999999999998</v>
       </c>
       <c r="L899" s="72">
-        <v>43.786999999999992</v>
+        <v>43.787000000000006</v>
       </c>
       <c r="M899" s="72">
-        <v>67.504000000000005</v>
+        <v>67.503999999999991</v>
       </c>
       <c r="N899" s="72">
-        <v>101.97399999999999</v>
+        <v>101.974</v>
       </c>
     </row>
     <row r="900" spans="1:14" x14ac:dyDescent="0.25">
@@ -45529,13 +45529,13 @@
         <v>19.335999999999999</v>
       </c>
       <c r="L900" s="72">
-        <v>60.461999999999989</v>
+        <v>60.462000000000003</v>
       </c>
       <c r="M900" s="72">
         <v>41.512</v>
       </c>
       <c r="N900" s="72">
-        <v>79.797999999999988</v>
+        <v>79.798000000000002</v>
       </c>
     </row>
     <row r="901" spans="1:14" x14ac:dyDescent="0.25">
@@ -45576,7 +45576,7 @@
         <v>58.124999999999993</v>
       </c>
       <c r="M901" s="72">
-        <v>21.672999999999998</v>
+        <v>21.673000000000002</v>
       </c>
       <c r="N901" s="72">
         <v>75.932999999999993</v>
@@ -45620,7 +45620,7 @@
         <v>36.549999999999997</v>
       </c>
       <c r="M902" s="72">
-        <v>39.383000000000003</v>
+        <v>39.382999999999996</v>
       </c>
       <c r="N902" s="72">
         <v>37.555999999999997</v>
@@ -45690,7 +45690,7 @@
         <v>70</v>
       </c>
       <c r="K904" s="72">
-        <v>43.874999999999993</v>
+        <v>43.875</v>
       </c>
       <c r="L904" s="72">
         <v>0</v>
@@ -45699,7 +45699,7 @@
         <v>0</v>
       </c>
       <c r="N904" s="72">
-        <v>43.874999999999993</v>
+        <v>43.875</v>
       </c>
     </row>
     <row r="905" spans="1:14" x14ac:dyDescent="0.25">
@@ -45778,16 +45778,16 @@
         <v>70</v>
       </c>
       <c r="K906" s="72">
-        <v>46.730000000000004</v>
+        <v>46.73</v>
       </c>
       <c r="L906" s="72">
-        <v>59.783999999999992</v>
+        <v>59.784000000000013</v>
       </c>
       <c r="M906" s="72">
-        <v>26.239000000000004</v>
+        <v>26.238999999999997</v>
       </c>
       <c r="N906" s="72">
-        <v>106.514</v>
+        <v>106.51400000000001</v>
       </c>
     </row>
     <row r="907" spans="1:14" x14ac:dyDescent="0.25">
@@ -45822,16 +45822,16 @@
         <v>70</v>
       </c>
       <c r="K907" s="72">
-        <v>20.511000000000003</v>
+        <v>20.510999999999999</v>
       </c>
       <c r="L907" s="72">
-        <v>73.429000000000002</v>
+        <v>73.429000000000016</v>
       </c>
       <c r="M907" s="72">
-        <v>33.085000000000008</v>
+        <v>33.084999999999994</v>
       </c>
       <c r="N907" s="72">
-        <v>93.94</v>
+        <v>93.940000000000012</v>
       </c>
     </row>
     <row r="908" spans="1:14" x14ac:dyDescent="0.25">
@@ -45869,13 +45869,13 @@
         <v>60.198999999999998</v>
       </c>
       <c r="L908" s="72">
-        <v>34.14400000000002</v>
+        <v>34.143999999999991</v>
       </c>
       <c r="M908" s="72">
-        <v>59.795999999999999</v>
+        <v>59.796000000000006</v>
       </c>
       <c r="N908" s="72">
-        <v>94.343000000000018</v>
+        <v>94.342999999999989</v>
       </c>
     </row>
     <row r="909" spans="1:14" x14ac:dyDescent="0.25">
@@ -45913,13 +45913,13 @@
         <v>16.507999999999999</v>
       </c>
       <c r="L909" s="72">
-        <v>54.471000000000018</v>
+        <v>54.471000000000004</v>
       </c>
       <c r="M909" s="72">
         <v>39.872</v>
       </c>
       <c r="N909" s="72">
-        <v>70.979000000000013</v>
+        <v>70.978999999999999</v>
       </c>
     </row>
     <row r="910" spans="1:14" x14ac:dyDescent="0.25">
@@ -45957,13 +45957,13 @@
         <v>14.433</v>
       </c>
       <c r="L910" s="72">
-        <v>48.028000000000013</v>
+        <v>48.027999999999999</v>
       </c>
       <c r="M910" s="72">
         <v>22.951000000000001</v>
       </c>
       <c r="N910" s="72">
-        <v>62.461000000000013</v>
+        <v>62.460999999999999</v>
       </c>
     </row>
     <row r="911" spans="1:14" x14ac:dyDescent="0.25">
@@ -46001,13 +46001,13 @@
         <v>0.76900000000000002</v>
       </c>
       <c r="L911" s="72">
-        <v>31.061999999999998</v>
+        <v>31.062000000000001</v>
       </c>
       <c r="M911" s="72">
         <v>31.399000000000001</v>
       </c>
       <c r="N911" s="72">
-        <v>31.830999999999996</v>
+        <v>31.831</v>
       </c>
     </row>
     <row r="912" spans="1:14" x14ac:dyDescent="0.25">
@@ -46045,7 +46045,7 @@
         <v>0</v>
       </c>
       <c r="M912" s="72">
-        <v>31.830999999999996</v>
+        <v>31.831</v>
       </c>
       <c r="N912" s="72">
         <v>0</v>
@@ -46074,7 +46074,7 @@
         <v>70</v>
       </c>
       <c r="K913" s="72">
-        <v>43.070000000000007</v>
+        <v>43.069999999999993</v>
       </c>
       <c r="L913" s="72">
         <v>0</v>
@@ -46083,7 +46083,7 @@
         <v>0</v>
       </c>
       <c r="N913" s="72">
-        <v>43.070000000000007</v>
+        <v>43.069999999999993</v>
       </c>
     </row>
     <row r="914" spans="1:14" x14ac:dyDescent="0.25">
@@ -46165,13 +46165,13 @@
         <v>45.676000000000002</v>
       </c>
       <c r="L915" s="72">
-        <v>58.551999999999992</v>
+        <v>58.552000000000007</v>
       </c>
       <c r="M915" s="72">
         <v>25.728000000000002</v>
       </c>
       <c r="N915" s="72">
-        <v>104.22799999999999</v>
+        <v>104.22800000000001</v>
       </c>
     </row>
     <row r="916" spans="1:14" x14ac:dyDescent="0.25">
@@ -46209,13 +46209,13 @@
         <v>19.042000000000002</v>
       </c>
       <c r="L916" s="72">
-        <v>72.097999999999985</v>
+        <v>72.097999999999999</v>
       </c>
       <c r="M916" s="72">
-        <v>32.130000000000003</v>
+        <v>32.129999999999995</v>
       </c>
       <c r="N916" s="72">
-        <v>91.139999999999986</v>
+        <v>91.14</v>
       </c>
     </row>
     <row r="917" spans="1:14" x14ac:dyDescent="0.25">
@@ -46250,16 +46250,16 @@
         <v>70</v>
       </c>
       <c r="K917" s="72">
-        <v>52.318999999999988</v>
+        <v>52.319000000000003</v>
       </c>
       <c r="L917" s="72">
-        <v>32.612000000000023</v>
+        <v>32.611999999999995</v>
       </c>
       <c r="M917" s="72">
         <v>58.528000000000006</v>
       </c>
       <c r="N917" s="72">
-        <v>84.931000000000012</v>
+        <v>84.930999999999997</v>
       </c>
     </row>
     <row r="918" spans="1:14" x14ac:dyDescent="0.25">
@@ -46294,7 +46294,7 @@
         <v>70</v>
       </c>
       <c r="K918" s="72">
-        <v>15.917</v>
+        <v>15.916999999999998</v>
       </c>
       <c r="L918" s="72">
         <v>48.394999999999996</v>
@@ -46549,13 +46549,13 @@
         <v>44.694000000000003</v>
       </c>
       <c r="L924" s="72">
-        <v>57.929000000000002</v>
+        <v>57.929000000000016</v>
       </c>
       <c r="M924" s="72">
         <v>25.436</v>
       </c>
       <c r="N924" s="72">
-        <v>102.623</v>
+        <v>102.62300000000002</v>
       </c>
     </row>
     <row r="925" spans="1:14" x14ac:dyDescent="0.25">
@@ -51764,7 +51764,7 @@
         <v>20.395</v>
       </c>
       <c r="M1046" s="72">
-        <v>25.815000000000001</v>
+        <v>25.814999999999998</v>
       </c>
       <c r="N1046" s="72">
         <v>24.061</v>
@@ -52013,13 +52013,13 @@
         <v>45.795000000000002</v>
       </c>
       <c r="L1052" s="72">
-        <v>25.52600000000001</v>
+        <v>25.525999999999996</v>
       </c>
       <c r="M1052" s="72">
-        <v>127.92699999999999</v>
+        <v>127.92700000000002</v>
       </c>
       <c r="N1052" s="72">
-        <v>71.321000000000012</v>
+        <v>71.320999999999998</v>
       </c>
     </row>
     <row r="1053" spans="1:14" x14ac:dyDescent="0.25">
@@ -52101,13 +52101,13 @@
         <v>4.46</v>
       </c>
       <c r="L1054" s="72">
-        <v>59.076000000000008</v>
+        <v>59.076000000000001</v>
       </c>
       <c r="M1054" s="72">
-        <v>74.049999999999983</v>
+        <v>74.050000000000011</v>
       </c>
       <c r="N1054" s="72">
-        <v>63.536000000000008</v>
+        <v>63.536000000000001</v>
       </c>
     </row>
     <row r="1055" spans="1:14" x14ac:dyDescent="0.25">
@@ -52145,13 +52145,13 @@
         <v>3.0170000000000003</v>
       </c>
       <c r="L1055" s="72">
-        <v>27.990999999999996</v>
+        <v>27.991</v>
       </c>
       <c r="M1055" s="72">
         <v>35.545000000000002</v>
       </c>
       <c r="N1055" s="72">
-        <v>31.007999999999996</v>
+        <v>31.007999999999999</v>
       </c>
     </row>
     <row r="1056" spans="1:14" x14ac:dyDescent="0.25">
@@ -52189,7 +52189,7 @@
         <v>0</v>
       </c>
       <c r="M1056" s="72">
-        <v>31.007999999999996</v>
+        <v>31.007999999999999</v>
       </c>
       <c r="N1056" s="72">
         <v>0</v>
@@ -52350,16 +52350,16 @@
         <v>70</v>
       </c>
       <c r="K1060" s="72">
-        <v>54.040000000000006</v>
+        <v>54.04</v>
       </c>
       <c r="L1060" s="72">
-        <v>79.303000000000011</v>
+        <v>79.302999999999997</v>
       </c>
       <c r="M1060" s="72">
         <v>58.856999999999999</v>
       </c>
       <c r="N1060" s="72">
-        <v>133.34300000000002</v>
+        <v>133.34299999999999</v>
       </c>
     </row>
     <row r="1061" spans="1:14" x14ac:dyDescent="0.25">
@@ -52397,13 +52397,13 @@
         <v>22.032</v>
       </c>
       <c r="L1061" s="72">
-        <v>28.580000000000002</v>
+        <v>28.579999999999995</v>
       </c>
       <c r="M1061" s="72">
         <v>104.76300000000001</v>
       </c>
       <c r="N1061" s="72">
-        <v>50.612000000000002</v>
+        <v>50.611999999999995</v>
       </c>
     </row>
     <row r="1062" spans="1:14" x14ac:dyDescent="0.25">
@@ -52438,16 +52438,16 @@
         <v>70</v>
       </c>
       <c r="K1062" s="72">
-        <v>49.186000000000007</v>
+        <v>49.186</v>
       </c>
       <c r="L1062" s="72">
-        <v>37.266999999999996</v>
+        <v>37.266999999999989</v>
       </c>
       <c r="M1062" s="72">
         <v>13.345000000000001</v>
       </c>
       <c r="N1062" s="72">
-        <v>86.453000000000003</v>
+        <v>86.452999999999989</v>
       </c>
     </row>
     <row r="1063" spans="1:14" x14ac:dyDescent="0.25">
@@ -52485,13 +52485,13 @@
         <v>10.519</v>
       </c>
       <c r="L1063" s="72">
-        <v>47.631</v>
+        <v>47.631000000000007</v>
       </c>
       <c r="M1063" s="72">
-        <v>38.822000000000003</v>
+        <v>38.821999999999996</v>
       </c>
       <c r="N1063" s="72">
-        <v>58.15</v>
+        <v>58.150000000000006</v>
       </c>
     </row>
     <row r="1064" spans="1:14" x14ac:dyDescent="0.25">
@@ -52529,13 +52529,13 @@
         <v>2.9000000000000004</v>
       </c>
       <c r="L1064" s="72">
-        <v>25.603999999999999</v>
+        <v>25.604000000000006</v>
       </c>
       <c r="M1064" s="72">
-        <v>32.545999999999999</v>
+        <v>32.545999999999992</v>
       </c>
       <c r="N1064" s="72">
-        <v>28.504000000000001</v>
+        <v>28.504000000000005</v>
       </c>
     </row>
     <row r="1065" spans="1:14" x14ac:dyDescent="0.25">
@@ -52573,7 +52573,7 @@
         <v>0</v>
       </c>
       <c r="M1065" s="72">
-        <v>28.504000000000001</v>
+        <v>28.504000000000005</v>
       </c>
       <c r="N1065" s="72">
         <v>0</v>
@@ -52649,13 +52649,13 @@
         <v>38.28</v>
       </c>
       <c r="L1067" s="72">
-        <v>30.679999999999993</v>
+        <v>30.680000000000007</v>
       </c>
       <c r="M1067" s="72">
         <v>2.9710000000000001</v>
       </c>
       <c r="N1067" s="72">
-        <v>68.959999999999994</v>
+        <v>68.960000000000008</v>
       </c>
     </row>
     <row r="1068" spans="1:14" x14ac:dyDescent="0.25">
@@ -52690,10 +52690,10 @@
         <v>70</v>
       </c>
       <c r="K1068" s="72">
-        <v>57.598000000000013</v>
+        <v>57.597999999999999</v>
       </c>
       <c r="L1068" s="72">
-        <v>59.756999999999991</v>
+        <v>59.757000000000005</v>
       </c>
       <c r="M1068" s="72">
         <v>9.2029999999999994</v>
@@ -52734,10 +52734,10 @@
         <v>70</v>
       </c>
       <c r="K1069" s="72">
-        <v>52.566999999999993</v>
+        <v>52.567</v>
       </c>
       <c r="L1069" s="72">
-        <v>75.183000000000007</v>
+        <v>75.182999999999993</v>
       </c>
       <c r="M1069" s="72">
         <v>42.171999999999997</v>
@@ -52784,7 +52784,7 @@
         <v>25.007999999999999</v>
       </c>
       <c r="M1070" s="72">
-        <v>102.74199999999999</v>
+        <v>102.742</v>
       </c>
       <c r="N1070" s="72">
         <v>44.963999999999999</v>
@@ -52822,10 +52822,10 @@
         <v>70</v>
       </c>
       <c r="K1071" s="72">
-        <v>44.944999999999993</v>
+        <v>44.945</v>
       </c>
       <c r="L1071" s="72">
-        <v>31.850000000000023</v>
+        <v>31.850000000000016</v>
       </c>
       <c r="M1071" s="72">
         <v>13.114000000000001</v>
@@ -53074,16 +53074,16 @@
         <v>70</v>
       </c>
       <c r="K1077" s="72">
-        <v>54.006000000000007</v>
+        <v>54.006</v>
       </c>
       <c r="L1077" s="72">
-        <v>59.318999999999967</v>
+        <v>59.318999999999988</v>
       </c>
       <c r="M1077" s="72">
         <v>9.0050000000000008</v>
       </c>
       <c r="N1077" s="72">
-        <v>113.32499999999997</v>
+        <v>113.32499999999999</v>
       </c>
     </row>
     <row r="1078" spans="1:14" x14ac:dyDescent="0.25">
@@ -53118,10 +53118,10 @@
         <v>70</v>
       </c>
       <c r="K1078" s="72">
-        <v>50.739999999999995</v>
+        <v>50.74</v>
       </c>
       <c r="L1078" s="72">
-        <v>73.873000000000005</v>
+        <v>73.87299999999999</v>
       </c>
       <c r="M1078" s="72">
         <v>39.451999999999998</v>
@@ -57814,16 +57814,16 @@
         <v>70</v>
       </c>
       <c r="K1188" s="72">
-        <v>52.541999999999994</v>
+        <v>52.542000000000002</v>
       </c>
       <c r="L1188" s="72">
-        <v>64.756000000000029</v>
+        <v>64.756</v>
       </c>
       <c r="M1188" s="72">
         <v>0</v>
       </c>
       <c r="N1188" s="72">
-        <v>117.29800000000002</v>
+        <v>117.298</v>
       </c>
     </row>
     <row r="1189" spans="1:14" x14ac:dyDescent="0.25">
@@ -57861,13 +57861,13 @@
         <v>7.7700000000000005</v>
       </c>
       <c r="L1189" s="72">
-        <v>60.140999999999984</v>
+        <v>60.140999999999998</v>
       </c>
       <c r="M1189" s="72">
-        <v>57.157000000000004</v>
+        <v>57.156999999999996</v>
       </c>
       <c r="N1189" s="72">
-        <v>67.910999999999987</v>
+        <v>67.911000000000001</v>
       </c>
     </row>
     <row r="1190" spans="1:14" x14ac:dyDescent="0.25">
@@ -57908,7 +57908,7 @@
         <v>30.504000000000005</v>
       </c>
       <c r="M1190" s="72">
-        <v>37.406999999999996</v>
+        <v>37.407000000000004</v>
       </c>
       <c r="N1190" s="72">
         <v>34.403000000000006</v>
@@ -58069,13 +58069,13 @@
         <v>64.832999999999998</v>
       </c>
       <c r="L1194" s="72">
-        <v>64.456000000000017</v>
+        <v>64.455999999999989</v>
       </c>
       <c r="M1194" s="72">
         <v>8.234</v>
       </c>
       <c r="N1194" s="72">
-        <v>129.28900000000002</v>
+        <v>129.28899999999999</v>
       </c>
     </row>
     <row r="1195" spans="1:14" x14ac:dyDescent="0.25">
@@ -58113,13 +58113,13 @@
         <v>29.381</v>
       </c>
       <c r="L1195" s="72">
-        <v>64.781000000000006</v>
+        <v>64.78100000000002</v>
       </c>
       <c r="M1195" s="72">
-        <v>64.507999999999996</v>
+        <v>64.50800000000001</v>
       </c>
       <c r="N1195" s="72">
-        <v>94.162000000000006</v>
+        <v>94.16200000000002</v>
       </c>
     </row>
     <row r="1196" spans="1:14" x14ac:dyDescent="0.25">
@@ -58154,16 +58154,16 @@
         <v>70</v>
       </c>
       <c r="K1196" s="72">
-        <v>58.647000000000006</v>
+        <v>58.646999999999998</v>
       </c>
       <c r="L1196" s="72">
-        <v>29.418000000000006</v>
+        <v>29.417999999999999</v>
       </c>
       <c r="M1196" s="72">
         <v>64.744</v>
       </c>
       <c r="N1196" s="72">
-        <v>88.065000000000012</v>
+        <v>88.064999999999998</v>
       </c>
     </row>
     <row r="1197" spans="1:14" x14ac:dyDescent="0.25">
@@ -58292,7 +58292,7 @@
         <v>27.584</v>
       </c>
       <c r="M1199" s="72">
-        <v>33.808</v>
+        <v>33.808000000000007</v>
       </c>
       <c r="N1199" s="72">
         <v>30.701999999999998</v>
@@ -58362,7 +58362,7 @@
         <v>70</v>
       </c>
       <c r="K1201" s="72">
-        <v>38.385000000000005</v>
+        <v>38.384999999999998</v>
       </c>
       <c r="L1201" s="72">
         <v>0</v>
@@ -58371,7 +58371,7 @@
         <v>0</v>
       </c>
       <c r="N1201" s="72">
-        <v>38.385000000000005</v>
+        <v>38.384999999999998</v>
       </c>
     </row>
     <row r="1202" spans="1:14" x14ac:dyDescent="0.25">
@@ -58409,13 +58409,13 @@
         <v>42.914000000000001</v>
       </c>
       <c r="L1202" s="72">
-        <v>35.252999999999986</v>
+        <v>35.253</v>
       </c>
       <c r="M1202" s="72">
         <v>3.1320000000000001</v>
       </c>
       <c r="N1202" s="72">
-        <v>78.166999999999987</v>
+        <v>78.167000000000002</v>
       </c>
     </row>
     <row r="1203" spans="1:14" x14ac:dyDescent="0.25">
@@ -58450,16 +58450,16 @@
         <v>70</v>
       </c>
       <c r="K1203" s="72">
-        <v>61.951999999999984</v>
+        <v>61.952000000000005</v>
       </c>
       <c r="L1203" s="72">
-        <v>63.738000000000014</v>
+        <v>63.737999999999978</v>
       </c>
       <c r="M1203" s="72">
         <v>14.429</v>
       </c>
       <c r="N1203" s="72">
-        <v>125.69</v>
+        <v>125.68999999999998</v>
       </c>
     </row>
     <row r="1204" spans="1:14" x14ac:dyDescent="0.25">
@@ -58494,13 +58494,13 @@
         <v>70</v>
       </c>
       <c r="K1204" s="72">
-        <v>31.986000000000001</v>
+        <v>31.985999999999997</v>
       </c>
       <c r="L1204" s="72">
-        <v>63.224999999999994</v>
+        <v>63.225000000000001</v>
       </c>
       <c r="M1204" s="72">
-        <v>62.464999999999996</v>
+        <v>62.465000000000003</v>
       </c>
       <c r="N1204" s="72">
         <v>95.210999999999999</v>
@@ -58544,7 +58544,7 @@
         <v>31.708999999999989</v>
       </c>
       <c r="M1205" s="72">
-        <v>63.50200000000001</v>
+        <v>63.502000000000002</v>
       </c>
       <c r="N1205" s="72">
         <v>84.955999999999989</v>
@@ -58582,16 +58582,16 @@
         <v>70</v>
       </c>
       <c r="K1206" s="72">
-        <v>45.03799999999999</v>
+        <v>45.037999999999997</v>
       </c>
       <c r="L1206" s="72">
-        <v>43.213999999999992</v>
+        <v>43.214000000000013</v>
       </c>
       <c r="M1206" s="72">
-        <v>41.742000000000004</v>
+        <v>41.741999999999997</v>
       </c>
       <c r="N1206" s="72">
-        <v>88.251999999999981</v>
+        <v>88.25200000000001</v>
       </c>
     </row>
     <row r="1207" spans="1:14" x14ac:dyDescent="0.25">
@@ -58626,7 +58626,7 @@
         <v>70</v>
       </c>
       <c r="K1207" s="72">
-        <v>8.777000000000001</v>
+        <v>8.7769999999999992</v>
       </c>
       <c r="L1207" s="72">
         <v>48.774000000000001</v>
@@ -58673,13 +58673,13 @@
         <v>2.96</v>
       </c>
       <c r="L1208" s="72">
-        <v>25.860999999999997</v>
+        <v>25.861000000000001</v>
       </c>
       <c r="M1208" s="72">
-        <v>31.690000000000005</v>
+        <v>31.689999999999998</v>
       </c>
       <c r="N1208" s="72">
-        <v>28.820999999999998</v>
+        <v>28.821000000000002</v>
       </c>
     </row>
     <row r="1209" spans="1:14" x14ac:dyDescent="0.25">
@@ -58717,7 +58717,7 @@
         <v>0</v>
       </c>
       <c r="M1209" s="72">
-        <v>28.820999999999998</v>
+        <v>28.821000000000002</v>
       </c>
       <c r="N1209" s="72">
         <v>0</v>
@@ -58746,7 +58746,7 @@
         <v>70</v>
       </c>
       <c r="K1210" s="72">
-        <v>36.564</v>
+        <v>36.563999999999993</v>
       </c>
       <c r="L1210" s="72">
         <v>0</v>
@@ -58755,7 +58755,7 @@
         <v>0</v>
       </c>
       <c r="N1210" s="72">
-        <v>36.564</v>
+        <v>36.563999999999993</v>
       </c>
     </row>
     <row r="1211" spans="1:14" x14ac:dyDescent="0.25">
@@ -58837,13 +58837,13 @@
         <v>68.066000000000003</v>
       </c>
       <c r="L1212" s="72">
-        <v>63.489999999999981</v>
+        <v>63.490000000000009</v>
       </c>
       <c r="M1212" s="72">
-        <v>10.376999999999999</v>
+        <v>10.377000000000001</v>
       </c>
       <c r="N1212" s="72">
-        <v>131.55599999999998</v>
+        <v>131.55600000000001</v>
       </c>
     </row>
     <row r="1213" spans="1:14" x14ac:dyDescent="0.25">
@@ -58878,10 +58878,10 @@
         <v>70</v>
       </c>
       <c r="K1213" s="72">
-        <v>29.611000000000001</v>
+        <v>29.610999999999997</v>
       </c>
       <c r="L1213" s="72">
-        <v>62.807000000000002</v>
+        <v>62.807000000000009</v>
       </c>
       <c r="M1213" s="72">
         <v>68.748999999999995</v>
@@ -58922,16 +58922,16 @@
         <v>70</v>
       </c>
       <c r="K1214" s="72">
-        <v>52.228000000000009</v>
+        <v>52.227999999999994</v>
       </c>
       <c r="L1214" s="72">
-        <v>29.340999999999994</v>
+        <v>29.341000000000022</v>
       </c>
       <c r="M1214" s="72">
-        <v>63.076999999999998</v>
+        <v>63.077000000000005</v>
       </c>
       <c r="N1214" s="72">
-        <v>81.569000000000003</v>
+        <v>81.569000000000017</v>
       </c>
     </row>
     <row r="1215" spans="1:14" x14ac:dyDescent="0.25">
@@ -59177,13 +59177,13 @@
         <v>39.289000000000001</v>
       </c>
       <c r="L1220" s="72">
-        <v>32.868000000000009</v>
+        <v>32.867999999999981</v>
       </c>
       <c r="M1220" s="72">
         <v>3.0939999999999999</v>
       </c>
       <c r="N1220" s="72">
-        <v>72.157000000000011</v>
+        <v>72.156999999999982</v>
       </c>
     </row>
     <row r="1221" spans="1:14" x14ac:dyDescent="0.25">
@@ -66105,13 +66105,13 @@
         <v>0</v>
       </c>
       <c r="G6" s="72">
-        <v>258.13924999999995</v>
+        <v>258.13925000000017</v>
       </c>
       <c r="H6" s="72">
         <v>420</v>
       </c>
       <c r="I6" s="76">
-        <v>0.61461726190476174</v>
+        <v>0.61461726190476229</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -66134,13 +66134,13 @@
         <v>0</v>
       </c>
       <c r="G7" s="72">
-        <v>46.930250000000001</v>
+        <v>46.930250000000008</v>
       </c>
       <c r="H7" s="72">
         <v>350</v>
       </c>
       <c r="I7" s="76">
-        <v>0.13408642857142858</v>
+        <v>0.13408642857142861</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -66221,13 +66221,13 @@
         <v>0</v>
       </c>
       <c r="G10" s="72">
-        <v>296.44324999999986</v>
+        <v>296.44324999999981</v>
       </c>
       <c r="H10" s="72">
         <v>420</v>
       </c>
       <c r="I10" s="76">
-        <v>0.70581726190476157</v>
+        <v>0.70581726190476146</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -66250,13 +66250,13 @@
         <v>0</v>
       </c>
       <c r="G11" s="72">
-        <v>76.063999999999979</v>
+        <v>76.063999999999965</v>
       </c>
       <c r="H11" s="72">
         <v>350</v>
       </c>
       <c r="I11" s="76">
-        <v>0.21732571428571423</v>
+        <v>0.21732571428571418</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -66395,13 +66395,13 @@
         <v>0</v>
       </c>
       <c r="G16" s="72">
-        <v>359.22424999999998</v>
+        <v>359.2242499999997</v>
       </c>
       <c r="H16" s="72">
         <v>420</v>
       </c>
       <c r="I16" s="76">
-        <v>0.85529583333333326</v>
+        <v>0.85529583333333259</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -66424,13 +66424,13 @@
         <v>0</v>
       </c>
       <c r="G17" s="72">
-        <v>119.00424999999994</v>
+        <v>119.00425000000006</v>
       </c>
       <c r="H17" s="72">
         <v>350</v>
       </c>
       <c r="I17" s="76">
-        <v>0.34001214285714271</v>
+        <v>0.34001214285714304</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -66453,13 +66453,13 @@
         <v>0</v>
       </c>
       <c r="G18" s="72">
-        <v>40.899999999999977</v>
+        <v>40.9</v>
       </c>
       <c r="H18" s="72">
         <v>210</v>
       </c>
       <c r="I18" s="76">
-        <v>0.19476190476190466</v>
+        <v>0.19476190476190475</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -66482,13 +66482,13 @@
         <v>0</v>
       </c>
       <c r="G19" s="72">
-        <v>50.378000000000014</v>
+        <v>50.377999999999993</v>
       </c>
       <c r="H19" s="72">
         <v>210</v>
       </c>
       <c r="I19" s="76">
-        <v>0.23989523809523816</v>
+        <v>0.23989523809523805</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -66511,13 +66511,13 @@
         <v>0</v>
       </c>
       <c r="G20" s="72">
-        <v>103.20674999999999</v>
+        <v>103.20675000000008</v>
       </c>
       <c r="H20" s="72">
         <v>210</v>
       </c>
       <c r="I20" s="76">
-        <v>0.4914607142857142</v>
+        <v>0.49146071428571469</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -66540,13 +66540,13 @@
         <v>0</v>
       </c>
       <c r="G21" s="72">
-        <v>80.989749999999958</v>
+        <v>80.989749999999987</v>
       </c>
       <c r="H21" s="72">
         <v>210</v>
       </c>
       <c r="I21" s="76">
-        <v>0.38566547619047598</v>
+        <v>0.38566547619047614</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -66627,13 +66627,13 @@
         <v>0</v>
       </c>
       <c r="G24" s="72">
-        <v>61.135750000000009</v>
+        <v>61.135749999999994</v>
       </c>
       <c r="H24" s="72">
         <v>210</v>
       </c>
       <c r="I24" s="76">
-        <v>0.2911226190476191</v>
+        <v>0.29112261904761905</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -66656,13 +66656,13 @@
         <v>0</v>
       </c>
       <c r="G25" s="72">
-        <v>43.853500000000004</v>
+        <v>43.85349999999999</v>
       </c>
       <c r="H25" s="72">
         <v>210</v>
       </c>
       <c r="I25" s="76">
-        <v>0.2088261904761905</v>
+        <v>0.20882619047619042</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -66801,13 +66801,13 @@
         <v>0</v>
       </c>
       <c r="G30" s="72">
-        <v>178.53649999999996</v>
+        <v>178.53649999999979</v>
       </c>
       <c r="H30" s="72">
         <v>210</v>
       </c>
       <c r="I30" s="76">
-        <v>0.85017380952380939</v>
+        <v>0.8501738095238085</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -66859,13 +66859,13 @@
         <v>0</v>
       </c>
       <c r="G32" s="72">
-        <v>129.2267499999999</v>
+        <v>129.22674999999995</v>
       </c>
       <c r="H32" s="72">
         <v>210</v>
       </c>
       <c r="I32" s="76">
-        <v>0.61536547619047566</v>
+        <v>0.61536547619047599</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -66888,13 +66888,13 @@
         <v>0</v>
       </c>
       <c r="G33" s="72">
-        <v>179.14499999999992</v>
+        <v>179.14500000000012</v>
       </c>
       <c r="H33" s="72">
         <v>210</v>
       </c>
       <c r="I33" s="76">
-        <v>0.85307142857142826</v>
+        <v>0.85307142857142915</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -66917,13 +66917,13 @@
         <v>0</v>
       </c>
       <c r="G34" s="72">
-        <v>570.73375000000021</v>
+        <v>570.73374999999999</v>
       </c>
       <c r="H34" s="72">
         <v>630</v>
       </c>
       <c r="I34" s="76">
-        <v>0.90592658730158759</v>
+        <v>0.90592658730158726</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -66946,13 +66946,13 @@
         <v>0</v>
       </c>
       <c r="G35" s="72">
-        <v>228.79974999999996</v>
+        <v>228.79974999999973</v>
       </c>
       <c r="H35" s="72">
         <v>630</v>
       </c>
       <c r="I35" s="76">
-        <v>0.36317420634920627</v>
+        <v>0.36317420634920594</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -66975,13 +66975,13 @@
         <v>0</v>
       </c>
       <c r="G36" s="72">
-        <v>85.914250000000052</v>
+        <v>85.914249999999967</v>
       </c>
       <c r="H36" s="72">
         <v>210</v>
       </c>
       <c r="I36" s="76">
-        <v>0.40911547619047645</v>
+        <v>0.40911547619047606</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -67004,13 +67004,13 @@
         <v>0</v>
       </c>
       <c r="G37" s="72">
-        <v>120.77799999999993</v>
+        <v>120.77799999999998</v>
       </c>
       <c r="H37" s="72">
         <v>210</v>
       </c>
       <c r="I37" s="76">
-        <v>0.57513333333333305</v>
+        <v>0.57513333333333327</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -67033,13 +67033,13 @@
         <v>0</v>
       </c>
       <c r="G38" s="72">
-        <v>139.79624999999999</v>
+        <v>139.79625000000004</v>
       </c>
       <c r="H38" s="72">
         <v>210</v>
       </c>
       <c r="I38" s="76">
-        <v>0.66569642857142852</v>
+        <v>0.66569642857142874</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -67062,13 +67062,13 @@
         <v>0</v>
       </c>
       <c r="G39" s="72">
-        <v>93.916250000000076</v>
+        <v>93.916250000000005</v>
       </c>
       <c r="H39" s="72">
         <v>210</v>
       </c>
       <c r="I39" s="76">
-        <v>0.44722023809523848</v>
+        <v>0.44722023809523814</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -67091,13 +67091,13 @@
         <v>0</v>
       </c>
       <c r="G40" s="72">
-        <v>43.967250000000035</v>
+        <v>43.967249999999972</v>
       </c>
       <c r="H40" s="72">
         <v>210</v>
       </c>
       <c r="I40" s="76">
-        <v>0.2093678571428573</v>
+        <v>0.20936785714285699</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -67120,13 +67120,13 @@
         <v>0</v>
       </c>
       <c r="G41" s="72">
-        <v>63.393750000000011</v>
+        <v>63.39374999999999</v>
       </c>
       <c r="H41" s="72">
         <v>210</v>
       </c>
       <c r="I41" s="76">
-        <v>0.30187500000000006</v>
+        <v>0.30187499999999995</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -67207,13 +67207,13 @@
         <v>0</v>
       </c>
       <c r="G44" s="72">
-        <v>64.462500000000063</v>
+        <v>64.46250000000002</v>
       </c>
       <c r="H44" s="72">
         <v>210</v>
       </c>
       <c r="I44" s="76">
-        <v>0.30696428571428602</v>
+        <v>0.3069642857142858</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -67236,13 +67236,13 @@
         <v>0</v>
       </c>
       <c r="G45" s="72">
-        <v>38.313250000000018</v>
+        <v>38.313249999999989</v>
       </c>
       <c r="H45" s="72">
         <v>140</v>
       </c>
       <c r="I45" s="76">
-        <v>0.27366607142857158</v>
+        <v>0.27366607142857136</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -67265,13 +67265,13 @@
         <v>0</v>
       </c>
       <c r="G46" s="72">
-        <v>345.09500000000014</v>
+        <v>345.09499999999969</v>
       </c>
       <c r="H46" s="72">
         <v>420</v>
       </c>
       <c r="I46" s="76">
-        <v>0.82165476190476228</v>
+        <v>0.82165476190476117</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -67294,13 +67294,13 @@
         <v>0</v>
       </c>
       <c r="G47" s="72">
-        <v>257.17800000000017</v>
+        <v>257.17799999999988</v>
       </c>
       <c r="H47" s="72">
         <v>350</v>
       </c>
       <c r="I47" s="76">
-        <v>0.73479428571428618</v>
+        <v>0.7347942857142854</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -67323,13 +67323,13 @@
         <v>0</v>
       </c>
       <c r="G48" s="72">
-        <v>102.36574999999996</v>
+        <v>102.36574999999999</v>
       </c>
       <c r="H48" s="72">
         <v>140</v>
       </c>
       <c r="I48" s="76">
-        <v>0.73118392857142833</v>
+        <v>0.73118392857142855</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
@@ -67352,13 +67352,13 @@
         <v>0</v>
       </c>
       <c r="G49" s="72">
-        <v>154.27124999999998</v>
+        <v>154.27125000000021</v>
       </c>
       <c r="H49" s="72">
         <v>210</v>
       </c>
       <c r="I49" s="76">
-        <v>0.73462499999999986</v>
+        <v>0.73462500000000097</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -67381,13 +67381,13 @@
         <v>0</v>
       </c>
       <c r="G50" s="72">
-        <v>255.08224999999976</v>
+        <v>255.08224999999996</v>
       </c>
       <c r="H50" s="72">
         <v>420</v>
       </c>
       <c r="I50" s="76">
-        <v>0.60733869047618994</v>
+        <v>0.60733869047619038</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -67410,13 +67410,13 @@
         <v>0</v>
       </c>
       <c r="G51" s="72">
-        <v>384.44824999999975</v>
+        <v>384.44825000000031</v>
       </c>
       <c r="H51" s="72">
         <v>420</v>
       </c>
       <c r="I51" s="76">
-        <v>0.91535297619047562</v>
+        <v>0.91535297619047695</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
@@ -67439,13 +67439,13 @@
         <v>0</v>
       </c>
       <c r="G52" s="72">
-        <v>314.92625000000015</v>
+        <v>314.92624999999975</v>
       </c>
       <c r="H52" s="72">
         <v>630</v>
       </c>
       <c r="I52" s="76">
-        <v>0.49988293650793675</v>
+        <v>0.49988293650793614</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -67468,13 +67468,13 @@
         <v>0</v>
       </c>
       <c r="G53" s="72">
-        <v>362.10974999999985</v>
+        <v>362.10974999999968</v>
       </c>
       <c r="H53" s="72">
         <v>630</v>
       </c>
       <c r="I53" s="76">
-        <v>0.57477738095238073</v>
+        <v>0.5747773809523804</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -67555,13 +67555,13 @@
         <v>0</v>
       </c>
       <c r="G56" s="72">
-        <v>128.22175000000007</v>
+        <v>128.22174999999996</v>
       </c>
       <c r="H56" s="72">
         <v>210</v>
       </c>
       <c r="I56" s="76">
-        <v>0.61057976190476226</v>
+        <v>0.61057976190476171</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
@@ -67671,13 +67671,13 @@
         <v>0</v>
       </c>
       <c r="G60" s="72">
-        <v>126.13050000000005</v>
+        <v>126.13050000000014</v>
       </c>
       <c r="H60" s="72">
         <v>210</v>
       </c>
       <c r="I60" s="76">
-        <v>0.60062142857142886</v>
+        <v>0.60062142857142919</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -67700,13 +67700,13 @@
         <v>0</v>
       </c>
       <c r="G61" s="72">
-        <v>79.26400000000001</v>
+        <v>79.263999999999982</v>
       </c>
       <c r="H61" s="72">
         <v>140</v>
       </c>
       <c r="I61" s="76">
-        <v>0.56617142857142866</v>
+        <v>0.56617142857142844</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -67787,13 +67787,13 @@
         <v>0</v>
       </c>
       <c r="G64" s="72">
-        <v>195.95649999999989</v>
+        <v>195.95650000000006</v>
       </c>
       <c r="H64" s="72">
         <v>210</v>
       </c>
       <c r="I64" s="76">
-        <v>0.93312619047618994</v>
+        <v>0.93312619047619072</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -67816,13 +67816,13 @@
         <v>0</v>
       </c>
       <c r="G65" s="72">
-        <v>119.30224999999994</v>
+        <v>119.30224999999999</v>
       </c>
       <c r="H65" s="72">
         <v>210</v>
       </c>
       <c r="I65" s="76">
-        <v>0.56810595238095207</v>
+        <v>0.56810595238095229</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -67845,13 +67845,13 @@
         <v>0</v>
       </c>
       <c r="G66" s="72">
-        <v>71.546749999999989</v>
+        <v>71.546749999999975</v>
       </c>
       <c r="H66" s="72">
         <v>210</v>
       </c>
       <c r="I66" s="76">
-        <v>0.34069880952380949</v>
+        <v>0.34069880952380938</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
@@ -67961,13 +67961,13 @@
         <v>0</v>
       </c>
       <c r="G70" s="72">
-        <v>234.00175000000002</v>
+        <v>234.0017499999999</v>
       </c>
       <c r="H70" s="72">
         <v>420</v>
       </c>
       <c r="I70" s="76">
-        <v>0.55714702380952386</v>
+        <v>0.55714702380952352</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
@@ -67990,13 +67990,13 @@
         <v>0</v>
       </c>
       <c r="G71" s="72">
-        <v>152.06025000000002</v>
+        <v>152.06025</v>
       </c>
       <c r="H71" s="72">
         <v>420</v>
       </c>
       <c r="I71" s="76">
-        <v>0.36204821428571432</v>
+        <v>0.36204821428571426</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
@@ -68019,13 +68019,13 @@
         <v>0</v>
       </c>
       <c r="G72" s="72">
-        <v>45.395250000000004</v>
+        <v>45.395250000000019</v>
       </c>
       <c r="H72" s="72">
         <v>210</v>
       </c>
       <c r="I72" s="76">
-        <v>0.21616785714285716</v>
+        <v>0.21616785714285724</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
@@ -68048,13 +68048,13 @@
         <v>0</v>
       </c>
       <c r="G73" s="72">
-        <v>56.677999999999997</v>
+        <v>56.678000000000011</v>
       </c>
       <c r="H73" s="72">
         <v>210</v>
       </c>
       <c r="I73" s="76">
-        <v>0.26989523809523808</v>
+        <v>0.26989523809523813</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
@@ -68193,13 +68193,13 @@
         <v>0</v>
       </c>
       <c r="G78" s="72">
-        <v>54.477750000000022</v>
+        <v>54.477750000000036</v>
       </c>
       <c r="H78" s="72">
         <v>210</v>
       </c>
       <c r="I78" s="76">
-        <v>0.25941785714285726</v>
+        <v>0.25941785714285731</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -68309,13 +68309,13 @@
         <v>0</v>
       </c>
       <c r="G82" s="72">
-        <v>192.11724999999993</v>
+        <v>192.11725000000007</v>
       </c>
       <c r="H82" s="72">
         <v>210</v>
       </c>
       <c r="I82" s="76">
-        <v>0.91484404761904725</v>
+        <v>0.91484404761904792</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
@@ -68338,13 +68338,13 @@
         <v>0</v>
       </c>
       <c r="G83" s="72">
-        <v>86.186750000000032</v>
+        <v>86.186750000000046</v>
       </c>
       <c r="H83" s="72">
         <v>210</v>
       </c>
       <c r="I83" s="76">
-        <v>0.41041309523809538</v>
+        <v>0.41041309523809544</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
@@ -68367,13 +68367,13 @@
         <v>0</v>
       </c>
       <c r="G84" s="72">
-        <v>168.25125</v>
+        <v>168.25124999999997</v>
       </c>
       <c r="H84" s="72">
         <v>210</v>
       </c>
       <c r="I84" s="76">
-        <v>0.80119642857142859</v>
+        <v>0.80119642857142848</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
@@ -68396,13 +68396,13 @@
         <v>0</v>
       </c>
       <c r="G85" s="72">
-        <v>40.552000000000007</v>
+        <v>40.552000000000021</v>
       </c>
       <c r="H85" s="72">
         <v>210</v>
       </c>
       <c r="I85" s="76">
-        <v>0.19310476190476195</v>
+        <v>0.193104761904762</v>
       </c>
     </row>
   </sheetData>

--- a/Grid_5x5/Solutions/Solution_NDP_S052/Spreadsheet/VIS17_PuTAss_CapaRestNo_InterlYes_v04.xlsx
+++ b/Grid_5x5/Solutions/Solution_NDP_S052/Spreadsheet/VIS17_PuTAss_CapaRestNo_InterlYes_v04.xlsx
@@ -2596,7 +2596,7 @@
         <v>200</v>
       </c>
       <c r="C40" s="39">
-        <v>22.66047897092453</v>
+        <v>22.660478970924537</v>
       </c>
       <c r="D40" s="22" t="s">
         <v>129</v>
@@ -2637,7 +2637,7 @@
         <v>202</v>
       </c>
       <c r="C42" s="39">
-        <v>0.93312619047619072</v>
+        <v>0.93312619047619094</v>
       </c>
       <c r="D42" s="22" t="s">
         <v>42</v>
@@ -8244,7 +8244,7 @@
         <v>98.815999999999988</v>
       </c>
       <c r="M22" s="72">
-        <v>31.440999999999999</v>
+        <v>31.441000000000003</v>
       </c>
       <c r="N22" s="72">
         <v>114.32</v>
@@ -8534,16 +8534,16 @@
         <v>70</v>
       </c>
       <c r="K29" s="72">
-        <v>58.242000000000004</v>
+        <v>58.24199999999999</v>
       </c>
       <c r="L29" s="72">
-        <v>116.05599999999997</v>
+        <v>116.05600000000001</v>
       </c>
       <c r="M29" s="72">
         <v>37.948999999999998</v>
       </c>
       <c r="N29" s="72">
-        <v>174.29799999999997</v>
+        <v>174.298</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
@@ -8584,7 +8584,7 @@
         <v>130.10000000000002</v>
       </c>
       <c r="M30" s="72">
-        <v>44.197999999999993</v>
+        <v>44.198</v>
       </c>
       <c r="N30" s="72">
         <v>141.42500000000001</v>
@@ -8698,7 +8698,7 @@
         <v>70</v>
       </c>
       <c r="K33" s="72">
-        <v>94.883999999999986</v>
+        <v>94.884</v>
       </c>
       <c r="L33" s="72">
         <v>0</v>
@@ -8707,7 +8707,7 @@
         <v>0</v>
       </c>
       <c r="N33" s="72">
-        <v>94.883999999999986</v>
+        <v>94.884</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
@@ -8742,10 +8742,10 @@
         <v>70</v>
       </c>
       <c r="K34" s="72">
-        <v>21.909000000000002</v>
+        <v>21.908999999999999</v>
       </c>
       <c r="L34" s="72">
-        <v>87.995999999999995</v>
+        <v>87.996000000000009</v>
       </c>
       <c r="M34" s="72">
         <v>6.8879999999999999</v>
@@ -8789,13 +8789,13 @@
         <v>29.904000000000003</v>
       </c>
       <c r="L35" s="72">
-        <v>103.81199999999998</v>
+        <v>103.81200000000001</v>
       </c>
       <c r="M35" s="72">
         <v>6.093</v>
       </c>
       <c r="N35" s="72">
-        <v>133.71599999999998</v>
+        <v>133.71600000000001</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
@@ -8874,7 +8874,7 @@
         <v>70</v>
       </c>
       <c r="K37" s="72">
-        <v>108.41499999999999</v>
+        <v>108.41500000000002</v>
       </c>
       <c r="L37" s="72">
         <v>55.762</v>
@@ -8883,7 +8883,7 @@
         <v>89.869</v>
       </c>
       <c r="N37" s="72">
-        <v>164.17699999999999</v>
+        <v>164.17700000000002</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
@@ -8918,16 +8918,16 @@
         <v>70</v>
       </c>
       <c r="K38" s="72">
-        <v>56.751000000000005</v>
+        <v>56.750999999999991</v>
       </c>
       <c r="L38" s="72">
-        <v>123.70699999999999</v>
+        <v>123.70699999999998</v>
       </c>
       <c r="M38" s="72">
         <v>40.47</v>
       </c>
       <c r="N38" s="72">
-        <v>180.458</v>
+        <v>180.45799999999997</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
@@ -8968,7 +8968,7 @@
         <v>135.25</v>
       </c>
       <c r="M39" s="72">
-        <v>45.208000000000006</v>
+        <v>45.208000000000013</v>
       </c>
       <c r="N39" s="72">
         <v>146.279</v>
@@ -9009,13 +9009,13 @@
         <v>12.777000000000001</v>
       </c>
       <c r="L40" s="72">
-        <v>113.34200000000003</v>
+        <v>113.342</v>
       </c>
       <c r="M40" s="72">
         <v>32.936999999999998</v>
       </c>
       <c r="N40" s="72">
-        <v>126.11900000000003</v>
+        <v>126.119</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
@@ -9053,7 +9053,7 @@
         <v>0</v>
       </c>
       <c r="M41" s="72">
-        <v>126.11900000000003</v>
+        <v>126.119</v>
       </c>
       <c r="N41" s="72">
         <v>0</v>
@@ -9126,7 +9126,7 @@
         <v>70</v>
       </c>
       <c r="K43" s="72">
-        <v>21.669</v>
+        <v>21.668999999999997</v>
       </c>
       <c r="L43" s="72">
         <v>87.351000000000013</v>
@@ -9173,13 +9173,13 @@
         <v>29.481000000000002</v>
       </c>
       <c r="L44" s="72">
-        <v>102.93600000000001</v>
+        <v>102.93600000000004</v>
       </c>
       <c r="M44" s="72">
         <v>6.0840000000000005</v>
       </c>
       <c r="N44" s="72">
-        <v>132.417</v>
+        <v>132.41700000000003</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
@@ -9261,13 +9261,13 @@
         <v>77.697000000000003</v>
       </c>
       <c r="L46" s="72">
-        <v>55.606999999999971</v>
+        <v>55.606999999999999</v>
       </c>
       <c r="M46" s="72">
         <v>88.746000000000009</v>
       </c>
       <c r="N46" s="72">
-        <v>133.30399999999997</v>
+        <v>133.304</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
@@ -9302,10 +9302,10 @@
         <v>70</v>
       </c>
       <c r="K47" s="72">
-        <v>57.967000000000006</v>
+        <v>57.966999999999999</v>
       </c>
       <c r="L47" s="72">
-        <v>101.05799999999996</v>
+        <v>101.05799999999998</v>
       </c>
       <c r="M47" s="72">
         <v>32.245999999999995</v>
@@ -9510,16 +9510,16 @@
         <v>70</v>
       </c>
       <c r="K52" s="72">
-        <v>21.473000000000003</v>
+        <v>21.472999999999999</v>
       </c>
       <c r="L52" s="72">
-        <v>86.827000000000012</v>
+        <v>86.826999999999998</v>
       </c>
       <c r="M52" s="72">
         <v>6.8460000000000001</v>
       </c>
       <c r="N52" s="72">
-        <v>108.30000000000001</v>
+        <v>108.3</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
@@ -9554,7 +9554,7 @@
         <v>70</v>
       </c>
       <c r="K53" s="72">
-        <v>29.021000000000004</v>
+        <v>29.021000000000001</v>
       </c>
       <c r="L53" s="72">
         <v>102.25000000000001</v>
@@ -9598,10 +9598,10 @@
         <v>70</v>
       </c>
       <c r="K54" s="72">
-        <v>35.391000000000005</v>
+        <v>35.390999999999998</v>
       </c>
       <c r="L54" s="72">
-        <v>107.10000000000001</v>
+        <v>107.10000000000002</v>
       </c>
       <c r="M54" s="72">
         <v>24.170999999999999</v>
@@ -13778,7 +13778,7 @@
         <v>70</v>
       </c>
       <c r="K152" s="72">
-        <v>26.834</v>
+        <v>26.834000000000003</v>
       </c>
       <c r="L152" s="72">
         <v>172.71699999999998</v>
@@ -13825,13 +13825,13 @@
         <v>37.789999999999992</v>
       </c>
       <c r="L153" s="72">
-        <v>148.10100000000003</v>
+        <v>148.10099999999997</v>
       </c>
       <c r="M153" s="72">
         <v>51.45</v>
       </c>
       <c r="N153" s="72">
-        <v>185.89100000000002</v>
+        <v>185.89099999999996</v>
       </c>
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.25">
@@ -13869,13 +13869,13 @@
         <v>24.618000000000002</v>
       </c>
       <c r="L154" s="72">
-        <v>28.189999999999991</v>
+        <v>28.190000000000005</v>
       </c>
       <c r="M154" s="72">
-        <v>157.70100000000002</v>
+        <v>157.70099999999999</v>
       </c>
       <c r="N154" s="72">
-        <v>52.807999999999993</v>
+        <v>52.808000000000007</v>
       </c>
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.25">
@@ -13916,7 +13916,7 @@
         <v>37.132999999999996</v>
       </c>
       <c r="M155" s="72">
-        <v>15.675000000000001</v>
+        <v>15.674999999999999</v>
       </c>
       <c r="N155" s="72">
         <v>53.897999999999996</v>
@@ -13957,13 +13957,13 @@
         <v>2.2919999999999998</v>
       </c>
       <c r="L156" s="72">
-        <v>31.812999999999995</v>
+        <v>31.813000000000002</v>
       </c>
       <c r="M156" s="72">
         <v>22.084999999999997</v>
       </c>
       <c r="N156" s="72">
-        <v>34.104999999999997</v>
+        <v>34.105000000000004</v>
       </c>
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.25">
@@ -14074,7 +14074,7 @@
         <v>70</v>
       </c>
       <c r="K159" s="72">
-        <v>35.359000000000002</v>
+        <v>35.358999999999995</v>
       </c>
       <c r="L159" s="72">
         <v>0</v>
@@ -14083,7 +14083,7 @@
         <v>0</v>
       </c>
       <c r="N159" s="72">
-        <v>35.359000000000002</v>
+        <v>35.358999999999995</v>
       </c>
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.25">
@@ -14118,10 +14118,10 @@
         <v>70</v>
       </c>
       <c r="K160" s="72">
-        <v>44.193999999999996</v>
+        <v>44.194000000000003</v>
       </c>
       <c r="L160" s="72">
-        <v>31.902999999999999</v>
+        <v>31.902999999999992</v>
       </c>
       <c r="M160" s="72">
         <v>3.456</v>
@@ -14165,13 +14165,13 @@
         <v>24.426000000000002</v>
       </c>
       <c r="L161" s="72">
-        <v>70.641999999999996</v>
+        <v>70.64200000000001</v>
       </c>
       <c r="M161" s="72">
         <v>5.4550000000000001</v>
       </c>
       <c r="N161" s="72">
-        <v>95.067999999999998</v>
+        <v>95.068000000000012</v>
       </c>
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.25">
@@ -14206,10 +14206,10 @@
         <v>70</v>
       </c>
       <c r="K162" s="72">
-        <v>36.691999999999993</v>
+        <v>36.692000000000007</v>
       </c>
       <c r="L162" s="72">
-        <v>70.233000000000018</v>
+        <v>70.233000000000004</v>
       </c>
       <c r="M162" s="72">
         <v>24.835000000000001</v>
@@ -14250,16 +14250,16 @@
         <v>70</v>
       </c>
       <c r="K163" s="72">
-        <v>23.404000000000003</v>
+        <v>23.404</v>
       </c>
       <c r="L163" s="72">
-        <v>17.185999999999993</v>
+        <v>17.186000000000003</v>
       </c>
       <c r="M163" s="72">
         <v>89.739000000000004</v>
       </c>
       <c r="N163" s="72">
-        <v>40.589999999999996</v>
+        <v>40.590000000000003</v>
       </c>
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.25">
@@ -14300,7 +14300,7 @@
         <v>30.018999999999998</v>
       </c>
       <c r="M164" s="72">
-        <v>10.571</v>
+        <v>10.570999999999998</v>
       </c>
       <c r="N164" s="72">
         <v>43.454999999999998</v>
@@ -14458,7 +14458,7 @@
         <v>70</v>
       </c>
       <c r="K168" s="72">
-        <v>28.184000000000005</v>
+        <v>28.183999999999997</v>
       </c>
       <c r="L168" s="72">
         <v>0</v>
@@ -14467,7 +14467,7 @@
         <v>0</v>
       </c>
       <c r="N168" s="72">
-        <v>28.184000000000005</v>
+        <v>28.183999999999997</v>
       </c>
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.25">
@@ -14546,16 +14546,16 @@
         <v>70</v>
       </c>
       <c r="K170" s="72">
-        <v>23.9</v>
+        <v>23.900000000000002</v>
       </c>
       <c r="L170" s="72">
-        <v>55.641000000000012</v>
+        <v>55.640999999999991</v>
       </c>
       <c r="M170" s="72">
         <v>4.3109999999999999</v>
       </c>
       <c r="N170" s="72">
-        <v>79.541000000000011</v>
+        <v>79.540999999999997</v>
       </c>
     </row>
     <row r="171" spans="1:14" x14ac:dyDescent="0.25">
@@ -14596,7 +14596,7 @@
         <v>58.670000000000016</v>
       </c>
       <c r="M171" s="72">
-        <v>20.871000000000002</v>
+        <v>20.870999999999999</v>
       </c>
       <c r="N171" s="72">
         <v>94.853000000000009</v>
@@ -14634,13 +14634,13 @@
         <v>70</v>
       </c>
       <c r="K172" s="72">
-        <v>22.572999999999997</v>
+        <v>22.573000000000008</v>
       </c>
       <c r="L172" s="72">
-        <v>15.499000000000006</v>
+        <v>15.498999999999995</v>
       </c>
       <c r="M172" s="72">
-        <v>79.353999999999999</v>
+        <v>79.354000000000013</v>
       </c>
       <c r="N172" s="72">
         <v>38.072000000000003</v>
@@ -14886,10 +14886,10 @@
         <v>70</v>
       </c>
       <c r="K178" s="72">
-        <v>32.258000000000003</v>
+        <v>32.257999999999996</v>
       </c>
       <c r="L178" s="72">
-        <v>24.175999999999995</v>
+        <v>24.176000000000002</v>
       </c>
       <c r="M178" s="72">
         <v>2.6309999999999998</v>
@@ -20608,7 +20608,7 @@
         <v>14.818999999999996</v>
       </c>
       <c r="M312" s="72">
-        <v>96.289999999999992</v>
+        <v>96.29000000000002</v>
       </c>
       <c r="N312" s="72">
         <v>37.947999999999993</v>
@@ -20810,16 +20810,16 @@
         <v>70</v>
       </c>
       <c r="K317" s="72">
-        <v>24.973000000000003</v>
+        <v>24.972999999999999</v>
       </c>
       <c r="L317" s="72">
-        <v>83.490000000000023</v>
+        <v>83.49</v>
       </c>
       <c r="M317" s="72">
         <v>6.0919999999999996</v>
       </c>
       <c r="N317" s="72">
-        <v>108.46300000000002</v>
+        <v>108.46299999999999</v>
       </c>
     </row>
     <row r="318" spans="1:14" x14ac:dyDescent="0.25">
@@ -20854,16 +20854,16 @@
         <v>70</v>
       </c>
       <c r="K318" s="72">
-        <v>20.818000000000001</v>
+        <v>20.817999999999998</v>
       </c>
       <c r="L318" s="72">
-        <v>83.798000000000002</v>
+        <v>83.798000000000016</v>
       </c>
       <c r="M318" s="72">
         <v>24.664999999999999</v>
       </c>
       <c r="N318" s="72">
-        <v>104.616</v>
+        <v>104.61600000000001</v>
       </c>
     </row>
     <row r="319" spans="1:14" x14ac:dyDescent="0.25">
@@ -20901,13 +20901,13 @@
         <v>25.716999999999999</v>
       </c>
       <c r="L319" s="72">
-        <v>14.751000000000005</v>
+        <v>14.750999999999998</v>
       </c>
       <c r="M319" s="72">
         <v>89.865000000000009</v>
       </c>
       <c r="N319" s="72">
-        <v>40.468000000000004</v>
+        <v>40.467999999999996</v>
       </c>
     </row>
     <row r="320" spans="1:14" x14ac:dyDescent="0.25">
@@ -20948,7 +20948,7 @@
         <v>0</v>
       </c>
       <c r="M320" s="72">
-        <v>40.468000000000004</v>
+        <v>40.467999999999996</v>
       </c>
       <c r="N320" s="72">
         <v>0</v>
@@ -21361,13 +21361,13 @@
         <v>17.497</v>
       </c>
       <c r="L330" s="72">
-        <v>70.624000000000009</v>
+        <v>70.623999999999995</v>
       </c>
       <c r="M330" s="72">
         <v>6.8460000000000001</v>
       </c>
       <c r="N330" s="72">
-        <v>88.121000000000009</v>
+        <v>88.120999999999995</v>
       </c>
     </row>
     <row r="331" spans="1:14" x14ac:dyDescent="0.25">
@@ -21402,7 +21402,7 @@
         <v>70</v>
       </c>
       <c r="K331" s="72">
-        <v>24.180000000000007</v>
+        <v>24.18</v>
       </c>
       <c r="L331" s="72">
         <v>82.070999999999998</v>
@@ -21411,7 +21411,7 @@
         <v>6.0500000000000007</v>
       </c>
       <c r="N331" s="72">
-        <v>106.251</v>
+        <v>106.25099999999999</v>
       </c>
     </row>
     <row r="332" spans="1:14" x14ac:dyDescent="0.25">
@@ -24837,7 +24837,7 @@
         <v>0</v>
       </c>
       <c r="M412" s="72">
-        <v>83.015000000000015</v>
+        <v>83.015000000000001</v>
       </c>
       <c r="N412" s="72">
         <v>0</v>
@@ -24998,16 +24998,16 @@
         <v>70</v>
       </c>
       <c r="K416" s="72">
-        <v>28.096999999999998</v>
+        <v>28.097000000000001</v>
       </c>
       <c r="L416" s="72">
-        <v>80.277000000000001</v>
+        <v>80.277000000000015</v>
       </c>
       <c r="M416" s="72">
         <v>14.413</v>
       </c>
       <c r="N416" s="72">
-        <v>108.374</v>
+        <v>108.37400000000002</v>
       </c>
     </row>
     <row r="417" spans="1:14" x14ac:dyDescent="0.25">
@@ -25045,13 +25045,13 @@
         <v>5.7210000000000001</v>
       </c>
       <c r="L417" s="72">
-        <v>65.738</v>
+        <v>65.737999999999985</v>
       </c>
       <c r="M417" s="72">
         <v>42.635999999999996</v>
       </c>
       <c r="N417" s="72">
-        <v>71.459000000000003</v>
+        <v>71.458999999999989</v>
       </c>
     </row>
     <row r="418" spans="1:14" x14ac:dyDescent="0.25">
@@ -25089,13 +25089,13 @@
         <v>4.4799999999999995</v>
       </c>
       <c r="L418" s="72">
-        <v>40.95900000000001</v>
+        <v>40.959000000000003</v>
       </c>
       <c r="M418" s="72">
         <v>30.5</v>
       </c>
       <c r="N418" s="72">
-        <v>45.439000000000007</v>
+        <v>45.439</v>
       </c>
     </row>
     <row r="419" spans="1:14" x14ac:dyDescent="0.25">
@@ -25133,7 +25133,7 @@
         <v>0</v>
       </c>
       <c r="M419" s="72">
-        <v>45.439000000000007</v>
+        <v>45.439</v>
       </c>
       <c r="N419" s="72">
         <v>0</v>
@@ -25162,7 +25162,7 @@
         <v>70</v>
       </c>
       <c r="K420" s="72">
-        <v>26.834</v>
+        <v>26.834000000000003</v>
       </c>
       <c r="L420" s="72">
         <v>0</v>
@@ -25171,7 +25171,7 @@
         <v>0</v>
       </c>
       <c r="N420" s="72">
-        <v>26.834</v>
+        <v>26.834000000000003</v>
       </c>
     </row>
     <row r="421" spans="1:14" x14ac:dyDescent="0.25">
@@ -25212,7 +25212,7 @@
         <v>20.503</v>
       </c>
       <c r="M421" s="72">
-        <v>6.3309999999999995</v>
+        <v>6.3310000000000004</v>
       </c>
       <c r="N421" s="72">
         <v>58.290999999999997</v>
@@ -25256,7 +25256,7 @@
         <v>9.9949999999999974</v>
       </c>
       <c r="M422" s="72">
-        <v>48.295999999999992</v>
+        <v>48.295999999999999</v>
       </c>
       <c r="N422" s="72">
         <v>34.610999999999997</v>
@@ -25294,16 +25294,16 @@
         <v>70</v>
       </c>
       <c r="K423" s="72">
-        <v>16.764000000000003</v>
+        <v>16.763999999999999</v>
       </c>
       <c r="L423" s="72">
-        <v>27.321000000000005</v>
+        <v>27.320999999999994</v>
       </c>
       <c r="M423" s="72">
-        <v>7.29</v>
+        <v>7.2899999999999991</v>
       </c>
       <c r="N423" s="72">
-        <v>44.085000000000008</v>
+        <v>44.084999999999994</v>
       </c>
     </row>
     <row r="424" spans="1:14" x14ac:dyDescent="0.25">
@@ -25552,7 +25552,7 @@
         <v>9.7929999999999993</v>
       </c>
       <c r="M429" s="72">
-        <v>45.11</v>
+        <v>45.110000000000007</v>
       </c>
       <c r="N429" s="72">
         <v>33.194000000000003</v>
@@ -25590,16 +25590,16 @@
         <v>70</v>
       </c>
       <c r="K430" s="72">
-        <v>13.435</v>
+        <v>13.434999999999999</v>
       </c>
       <c r="L430" s="72">
-        <v>26.125999999999991</v>
+        <v>26.126000000000001</v>
       </c>
       <c r="M430" s="72">
         <v>7.0679999999999996</v>
       </c>
       <c r="N430" s="72">
-        <v>39.560999999999993</v>
+        <v>39.561</v>
       </c>
     </row>
     <row r="431" spans="1:14" x14ac:dyDescent="0.25">
@@ -25637,13 +25637,13 @@
         <v>2.1930000000000005</v>
       </c>
       <c r="L431" s="72">
-        <v>23.003</v>
+        <v>23.003000000000004</v>
       </c>
       <c r="M431" s="72">
         <v>16.558</v>
       </c>
       <c r="N431" s="72">
-        <v>25.196000000000002</v>
+        <v>25.196000000000005</v>
       </c>
     </row>
     <row r="432" spans="1:14" x14ac:dyDescent="0.25">
@@ -25681,13 +25681,13 @@
         <v>1.6440000000000001</v>
       </c>
       <c r="L432" s="72">
-        <v>13.961000000000002</v>
+        <v>13.961</v>
       </c>
       <c r="M432" s="72">
         <v>11.234999999999999</v>
       </c>
       <c r="N432" s="72">
-        <v>15.605000000000002</v>
+        <v>15.605</v>
       </c>
     </row>
     <row r="433" spans="1:14" x14ac:dyDescent="0.25">
@@ -25754,7 +25754,7 @@
         <v>70</v>
       </c>
       <c r="K434" s="72">
-        <v>23.898</v>
+        <v>23.898000000000003</v>
       </c>
       <c r="L434" s="72">
         <v>0</v>
@@ -25763,7 +25763,7 @@
         <v>0</v>
       </c>
       <c r="N434" s="72">
-        <v>23.898</v>
+        <v>23.898000000000003</v>
       </c>
     </row>
     <row r="435" spans="1:14" x14ac:dyDescent="0.25">
@@ -25801,13 +25801,13 @@
         <v>36.180999999999997</v>
       </c>
       <c r="L435" s="72">
-        <v>17.745999999999995</v>
+        <v>17.746000000000002</v>
       </c>
       <c r="M435" s="72">
         <v>6.1520000000000001</v>
       </c>
       <c r="N435" s="72">
-        <v>53.926999999999992</v>
+        <v>53.927</v>
       </c>
     </row>
     <row r="436" spans="1:14" x14ac:dyDescent="0.25">
@@ -25845,13 +25845,13 @@
         <v>22.57</v>
       </c>
       <c r="L436" s="72">
-        <v>9.6899999999999977</v>
+        <v>9.6900000000000048</v>
       </c>
       <c r="M436" s="72">
-        <v>44.237000000000009</v>
+        <v>44.236999999999995</v>
       </c>
       <c r="N436" s="72">
-        <v>32.26</v>
+        <v>32.260000000000005</v>
       </c>
     </row>
     <row r="437" spans="1:14" x14ac:dyDescent="0.25">
@@ -29737,13 +29737,13 @@
         <v>66.938999999999993</v>
       </c>
       <c r="L528" s="72">
-        <v>35.149000000000029</v>
+        <v>35.149000000000001</v>
       </c>
       <c r="M528" s="72">
         <v>139.34100000000001</v>
       </c>
       <c r="N528" s="72">
-        <v>102.08800000000002</v>
+        <v>102.08799999999999</v>
       </c>
     </row>
     <row r="529" spans="1:14" x14ac:dyDescent="0.25">
@@ -29781,13 +29781,13 @@
         <v>7.8229999999999995</v>
       </c>
       <c r="L529" s="72">
-        <v>87.799000000000007</v>
+        <v>87.798999999999992</v>
       </c>
       <c r="M529" s="72">
         <v>14.289</v>
       </c>
       <c r="N529" s="72">
-        <v>95.622</v>
+        <v>95.621999999999986</v>
       </c>
     </row>
     <row r="530" spans="1:14" x14ac:dyDescent="0.25">
@@ -29942,10 +29942,10 @@
         <v>70</v>
       </c>
       <c r="K533" s="72">
-        <v>94.797000000000025</v>
+        <v>94.796999999999997</v>
       </c>
       <c r="L533" s="72">
-        <v>40.35299999999998</v>
+        <v>40.353000000000009</v>
       </c>
       <c r="M533" s="72">
         <v>5.1619999999999999</v>
@@ -29989,13 +29989,13 @@
         <v>36.97</v>
       </c>
       <c r="L534" s="72">
-        <v>105.16300000000004</v>
+        <v>105.16300000000001</v>
       </c>
       <c r="M534" s="72">
-        <v>29.986999999999995</v>
+        <v>29.987000000000002</v>
       </c>
       <c r="N534" s="72">
-        <v>142.13300000000004</v>
+        <v>142.13300000000001</v>
       </c>
     </row>
     <row r="535" spans="1:14" x14ac:dyDescent="0.25">
@@ -30033,13 +30033,13 @@
         <v>65.102999999999994</v>
       </c>
       <c r="L535" s="72">
-        <v>30.387</v>
+        <v>30.387000000000015</v>
       </c>
       <c r="M535" s="72">
         <v>111.74600000000001</v>
       </c>
       <c r="N535" s="72">
-        <v>95.49</v>
+        <v>95.490000000000009</v>
       </c>
     </row>
     <row r="536" spans="1:14" x14ac:dyDescent="0.25">
@@ -30074,7 +30074,7 @@
         <v>70</v>
       </c>
       <c r="K536" s="72">
-        <v>19.242999999999999</v>
+        <v>19.243000000000002</v>
       </c>
       <c r="L536" s="72">
         <v>83.746000000000009</v>
@@ -30121,13 +30121,13 @@
         <v>5.1419999999999995</v>
       </c>
       <c r="L537" s="72">
-        <v>30.669</v>
+        <v>30.669000000000008</v>
       </c>
       <c r="M537" s="72">
         <v>72.319999999999993</v>
       </c>
       <c r="N537" s="72">
-        <v>35.811</v>
+        <v>35.811000000000007</v>
       </c>
     </row>
     <row r="538" spans="1:14" x14ac:dyDescent="0.25">
@@ -30165,7 +30165,7 @@
         <v>0</v>
       </c>
       <c r="M538" s="72">
-        <v>35.811</v>
+        <v>35.811000000000007</v>
       </c>
       <c r="N538" s="72">
         <v>0</v>
@@ -30194,7 +30194,7 @@
         <v>70</v>
       </c>
       <c r="K539" s="72">
-        <v>41.337999999999994</v>
+        <v>41.338000000000008</v>
       </c>
       <c r="L539" s="72">
         <v>0</v>
@@ -30203,7 +30203,7 @@
         <v>0</v>
       </c>
       <c r="N539" s="72">
-        <v>41.337999999999994</v>
+        <v>41.338000000000008</v>
       </c>
     </row>
     <row r="540" spans="1:14" x14ac:dyDescent="0.25">
@@ -30238,16 +30238,16 @@
         <v>70</v>
       </c>
       <c r="K540" s="72">
-        <v>84.53400000000002</v>
+        <v>84.533999999999992</v>
       </c>
       <c r="L540" s="72">
-        <v>36.300999999999988</v>
+        <v>36.301000000000002</v>
       </c>
       <c r="M540" s="72">
         <v>5.0369999999999999</v>
       </c>
       <c r="N540" s="72">
-        <v>120.83500000000001</v>
+        <v>120.83499999999999</v>
       </c>
     </row>
     <row r="541" spans="1:14" x14ac:dyDescent="0.25">
@@ -30282,13 +30282,13 @@
         <v>70</v>
       </c>
       <c r="K541" s="72">
-        <v>35.771999999999998</v>
+        <v>35.772000000000006</v>
       </c>
       <c r="L541" s="72">
-        <v>102</v>
+        <v>101.99999999999999</v>
       </c>
       <c r="M541" s="72">
-        <v>18.835000000000001</v>
+        <v>18.834999999999997</v>
       </c>
       <c r="N541" s="72">
         <v>137.77199999999999</v>
@@ -30332,7 +30332,7 @@
         <v>29.578000000000003</v>
       </c>
       <c r="M542" s="72">
-        <v>108.19400000000002</v>
+        <v>108.19399999999999</v>
       </c>
       <c r="N542" s="72">
         <v>87.893000000000001</v>
@@ -30370,7 +30370,7 @@
         <v>70</v>
       </c>
       <c r="K543" s="72">
-        <v>11.108000000000001</v>
+        <v>11.107999999999999</v>
       </c>
       <c r="L543" s="72">
         <v>76.561999999999998</v>
@@ -30490,7 +30490,7 @@
         <v>70</v>
       </c>
       <c r="K546" s="72">
-        <v>40.220999999999997</v>
+        <v>40.221000000000004</v>
       </c>
       <c r="L546" s="72">
         <v>0</v>
@@ -30499,7 +30499,7 @@
         <v>0</v>
       </c>
       <c r="N546" s="72">
-        <v>40.220999999999997</v>
+        <v>40.221000000000004</v>
       </c>
     </row>
     <row r="547" spans="1:14" x14ac:dyDescent="0.25">
@@ -30534,16 +30534,16 @@
         <v>70</v>
       </c>
       <c r="K547" s="72">
-        <v>80.758999999999986</v>
+        <v>80.759000000000015</v>
       </c>
       <c r="L547" s="72">
-        <v>35.271000000000001</v>
+        <v>35.270999999999987</v>
       </c>
       <c r="M547" s="72">
         <v>4.95</v>
       </c>
       <c r="N547" s="72">
-        <v>116.02999999999999</v>
+        <v>116.03</v>
       </c>
     </row>
     <row r="548" spans="1:14" x14ac:dyDescent="0.25">
@@ -34725,13 +34725,13 @@
         <v>49.447000000000003</v>
       </c>
       <c r="L646" s="72">
-        <v>90.9</v>
+        <v>90.899999999999977</v>
       </c>
       <c r="M646" s="72">
-        <v>33.247000000000007</v>
+        <v>33.247</v>
       </c>
       <c r="N646" s="72">
-        <v>140.34700000000001</v>
+        <v>140.34699999999998</v>
       </c>
     </row>
     <row r="647" spans="1:14" x14ac:dyDescent="0.25">
@@ -34766,16 +34766,16 @@
         <v>70</v>
       </c>
       <c r="K647" s="72">
-        <v>83.978999999999999</v>
+        <v>83.979000000000013</v>
       </c>
       <c r="L647" s="72">
-        <v>19.731000000000009</v>
+        <v>19.73099999999998</v>
       </c>
       <c r="M647" s="72">
-        <v>120.61600000000001</v>
+        <v>120.616</v>
       </c>
       <c r="N647" s="72">
-        <v>103.71000000000001</v>
+        <v>103.71</v>
       </c>
     </row>
     <row r="648" spans="1:14" x14ac:dyDescent="0.25">
@@ -34813,13 +34813,13 @@
         <v>9.2050000000000018</v>
       </c>
       <c r="L648" s="72">
-        <v>70.212000000000003</v>
+        <v>70.211999999999989</v>
       </c>
       <c r="M648" s="72">
-        <v>33.498000000000005</v>
+        <v>33.497999999999998</v>
       </c>
       <c r="N648" s="72">
-        <v>79.417000000000002</v>
+        <v>79.416999999999987</v>
       </c>
     </row>
     <row r="649" spans="1:14" x14ac:dyDescent="0.25">
@@ -34857,13 +34857,13 @@
         <v>4.8520000000000003</v>
       </c>
       <c r="L649" s="72">
-        <v>23.199000000000002</v>
+        <v>23.199000000000005</v>
       </c>
       <c r="M649" s="72">
         <v>56.218000000000004</v>
       </c>
       <c r="N649" s="72">
-        <v>28.051000000000002</v>
+        <v>28.051000000000005</v>
       </c>
     </row>
     <row r="650" spans="1:14" x14ac:dyDescent="0.25">
@@ -34901,7 +34901,7 @@
         <v>0</v>
       </c>
       <c r="M650" s="72">
-        <v>28.051000000000002</v>
+        <v>28.051000000000005</v>
       </c>
       <c r="N650" s="72">
         <v>0</v>
@@ -34974,10 +34974,10 @@
         <v>70</v>
       </c>
       <c r="K652" s="72">
-        <v>80.027000000000015</v>
+        <v>80.027000000000001</v>
       </c>
       <c r="L652" s="72">
-        <v>33.400999999999982</v>
+        <v>33.400999999999996</v>
       </c>
       <c r="M652" s="72">
         <v>4.9960000000000004</v>
@@ -35018,16 +35018,16 @@
         <v>70</v>
       </c>
       <c r="K653" s="72">
-        <v>54.54</v>
+        <v>54.540000000000006</v>
       </c>
       <c r="L653" s="72">
-        <v>89.726000000000028</v>
+        <v>89.725999999999956</v>
       </c>
       <c r="M653" s="72">
-        <v>23.702000000000002</v>
+        <v>23.701999999999998</v>
       </c>
       <c r="N653" s="72">
-        <v>144.26600000000002</v>
+        <v>144.26599999999996</v>
       </c>
     </row>
     <row r="654" spans="1:14" x14ac:dyDescent="0.25">
@@ -35062,16 +35062,16 @@
         <v>70</v>
       </c>
       <c r="K654" s="72">
-        <v>83.061000000000007</v>
+        <v>83.060999999999993</v>
       </c>
       <c r="L654" s="72">
         <v>37.125999999999991</v>
       </c>
       <c r="M654" s="72">
-        <v>107.14</v>
+        <v>107.13999999999999</v>
       </c>
       <c r="N654" s="72">
-        <v>120.187</v>
+        <v>120.18699999999998</v>
       </c>
     </row>
     <row r="655" spans="1:14" x14ac:dyDescent="0.25">
@@ -35109,13 +35109,13 @@
         <v>8.2850000000000001</v>
       </c>
       <c r="L655" s="72">
-        <v>95.829000000000008</v>
+        <v>95.828999999999994</v>
       </c>
       <c r="M655" s="72">
         <v>24.358000000000001</v>
       </c>
       <c r="N655" s="72">
-        <v>104.114</v>
+        <v>104.11399999999999</v>
       </c>
     </row>
     <row r="656" spans="1:14" x14ac:dyDescent="0.25">
@@ -35153,13 +35153,13 @@
         <v>4.6959999999999997</v>
       </c>
       <c r="L656" s="72">
-        <v>30.528999999999996</v>
+        <v>30.529000000000003</v>
       </c>
       <c r="M656" s="72">
         <v>73.585000000000008</v>
       </c>
       <c r="N656" s="72">
-        <v>35.224999999999994</v>
+        <v>35.225000000000001</v>
       </c>
     </row>
     <row r="657" spans="1:14" x14ac:dyDescent="0.25">
@@ -35197,7 +35197,7 @@
         <v>0</v>
       </c>
       <c r="M657" s="72">
-        <v>35.224999999999994</v>
+        <v>35.225000000000001</v>
       </c>
       <c r="N657" s="72">
         <v>0</v>
@@ -35273,13 +35273,13 @@
         <v>78.484000000000009</v>
       </c>
       <c r="L659" s="72">
-        <v>32.841000000000008</v>
+        <v>32.84099999999998</v>
       </c>
       <c r="M659" s="72">
         <v>4.9820000000000002</v>
       </c>
       <c r="N659" s="72">
-        <v>111.32500000000002</v>
+        <v>111.32499999999999</v>
       </c>
     </row>
     <row r="660" spans="1:14" x14ac:dyDescent="0.25">
@@ -35320,7 +35320,7 @@
         <v>89.316999999999979</v>
       </c>
       <c r="M660" s="72">
-        <v>22.008000000000003</v>
+        <v>22.007999999999999</v>
       </c>
       <c r="N660" s="72">
         <v>131.21699999999998</v>
@@ -35361,13 +35361,13 @@
         <v>77.572000000000003</v>
       </c>
       <c r="L661" s="72">
-        <v>25.120999999999995</v>
+        <v>25.121000000000009</v>
       </c>
       <c r="M661" s="72">
         <v>106.096</v>
       </c>
       <c r="N661" s="72">
-        <v>102.693</v>
+        <v>102.69300000000001</v>
       </c>
     </row>
     <row r="662" spans="1:14" x14ac:dyDescent="0.25">
@@ -35405,13 +35405,13 @@
         <v>8.0990000000000002</v>
       </c>
       <c r="L662" s="72">
-        <v>78.73099999999998</v>
+        <v>78.731000000000009</v>
       </c>
       <c r="M662" s="72">
-        <v>23.962</v>
+        <v>23.962000000000003</v>
       </c>
       <c r="N662" s="72">
-        <v>86.829999999999984</v>
+        <v>86.830000000000013</v>
       </c>
     </row>
     <row r="663" spans="1:14" x14ac:dyDescent="0.25">
@@ -35522,7 +35522,7 @@
         <v>70</v>
       </c>
       <c r="K665" s="72">
-        <v>37.337999999999994</v>
+        <v>37.338000000000008</v>
       </c>
       <c r="L665" s="72">
         <v>0</v>
@@ -35531,7 +35531,7 @@
         <v>0</v>
       </c>
       <c r="N665" s="72">
-        <v>37.337999999999994</v>
+        <v>37.338000000000008</v>
       </c>
     </row>
     <row r="666" spans="1:14" x14ac:dyDescent="0.25">
@@ -38822,16 +38822,16 @@
         <v>70</v>
       </c>
       <c r="K743" s="72">
-        <v>135.40900000000002</v>
+        <v>135.40899999999999</v>
       </c>
       <c r="L743" s="72">
-        <v>135.80199999999994</v>
+        <v>135.80200000000002</v>
       </c>
       <c r="M743" s="72">
         <v>1.4929999999999999</v>
       </c>
       <c r="N743" s="72">
-        <v>271.21099999999996</v>
+        <v>271.21100000000001</v>
       </c>
     </row>
     <row r="744" spans="1:14" x14ac:dyDescent="0.25">
@@ -38866,13 +38866,13 @@
         <v>70</v>
       </c>
       <c r="K744" s="72">
-        <v>61.856999999999999</v>
+        <v>61.856999999999992</v>
       </c>
       <c r="L744" s="72">
         <v>210.58699999999996</v>
       </c>
       <c r="M744" s="72">
-        <v>60.623999999999995</v>
+        <v>60.624000000000009</v>
       </c>
       <c r="N744" s="72">
         <v>272.44399999999996</v>
@@ -38910,10 +38910,10 @@
         <v>70</v>
       </c>
       <c r="K745" s="72">
-        <v>92.688999999999993</v>
+        <v>92.689000000000007</v>
       </c>
       <c r="L745" s="72">
-        <v>203.02</v>
+        <v>203.01999999999998</v>
       </c>
       <c r="M745" s="72">
         <v>69.424000000000007</v>
@@ -38957,13 +38957,13 @@
         <v>97.65100000000001</v>
       </c>
       <c r="L746" s="72">
-        <v>98.803999999999974</v>
+        <v>98.804000000000002</v>
       </c>
       <c r="M746" s="72">
-        <v>196.90500000000003</v>
+        <v>196.90499999999997</v>
       </c>
       <c r="N746" s="72">
-        <v>196.45499999999998</v>
+        <v>196.45500000000001</v>
       </c>
     </row>
     <row r="747" spans="1:14" x14ac:dyDescent="0.25">
@@ -38998,7 +38998,7 @@
         <v>70</v>
       </c>
       <c r="K747" s="72">
-        <v>46.940000000000005</v>
+        <v>46.94</v>
       </c>
       <c r="L747" s="72">
         <v>161.626</v>
@@ -39051,7 +39051,7 @@
         <v>59.602000000000004</v>
       </c>
       <c r="N748" s="72">
-        <v>200.92499999999998</v>
+        <v>200.92500000000001</v>
       </c>
     </row>
     <row r="749" spans="1:14" x14ac:dyDescent="0.25">
@@ -39256,7 +39256,7 @@
         <v>84.199000000000026</v>
       </c>
       <c r="M753" s="72">
-        <v>23.819000000000003</v>
+        <v>23.818999999999999</v>
       </c>
       <c r="N753" s="72">
         <v>123.60100000000003</v>
@@ -39294,10 +39294,10 @@
         <v>70</v>
       </c>
       <c r="K754" s="72">
-        <v>60.088000000000008</v>
+        <v>60.088000000000001</v>
       </c>
       <c r="L754" s="72">
-        <v>95.116</v>
+        <v>95.116000000000014</v>
       </c>
       <c r="M754" s="72">
         <v>28.484999999999999</v>
@@ -39341,13 +39341,13 @@
         <v>44.147999999999996</v>
       </c>
       <c r="L755" s="72">
-        <v>47.91200000000002</v>
+        <v>47.912000000000006</v>
       </c>
       <c r="M755" s="72">
-        <v>107.29200000000002</v>
+        <v>107.292</v>
       </c>
       <c r="N755" s="72">
-        <v>92.060000000000016</v>
+        <v>92.06</v>
       </c>
     </row>
     <row r="756" spans="1:14" x14ac:dyDescent="0.25">
@@ -39382,13 +39382,13 @@
         <v>70</v>
       </c>
       <c r="K756" s="72">
-        <v>22.463999999999999</v>
+        <v>22.464000000000002</v>
       </c>
       <c r="L756" s="72">
         <v>70.512000000000015</v>
       </c>
       <c r="M756" s="72">
-        <v>21.548000000000002</v>
+        <v>21.547999999999998</v>
       </c>
       <c r="N756" s="72">
         <v>92.976000000000013</v>
@@ -39429,13 +39429,13 @@
         <v>17.731000000000002</v>
       </c>
       <c r="L757" s="72">
-        <v>56.124000000000017</v>
+        <v>56.124000000000002</v>
       </c>
       <c r="M757" s="72">
         <v>36.852000000000004</v>
       </c>
       <c r="N757" s="72">
-        <v>73.855000000000018</v>
+        <v>73.855000000000004</v>
       </c>
     </row>
     <row r="758" spans="1:14" x14ac:dyDescent="0.25">
@@ -39476,7 +39476,7 @@
         <v>34.961000000000006</v>
       </c>
       <c r="M758" s="72">
-        <v>38.893999999999998</v>
+        <v>38.894000000000005</v>
       </c>
       <c r="N758" s="72">
         <v>35.769000000000005</v>
@@ -39546,7 +39546,7 @@
         <v>70</v>
       </c>
       <c r="K760" s="72">
-        <v>44.085000000000001</v>
+        <v>44.084999999999994</v>
       </c>
       <c r="L760" s="72">
         <v>0</v>
@@ -39555,7 +39555,7 @@
         <v>0</v>
       </c>
       <c r="N760" s="72">
-        <v>44.085000000000001</v>
+        <v>44.084999999999994</v>
       </c>
     </row>
     <row r="761" spans="1:14" x14ac:dyDescent="0.25">
@@ -39593,13 +39593,13 @@
         <v>40.429000000000002</v>
       </c>
       <c r="L761" s="72">
-        <v>43.605000000000018</v>
+        <v>43.605000000000004</v>
       </c>
       <c r="M761" s="72">
         <v>0.48</v>
       </c>
       <c r="N761" s="72">
-        <v>84.03400000000002</v>
+        <v>84.034000000000006</v>
       </c>
     </row>
     <row r="762" spans="1:14" x14ac:dyDescent="0.25">
@@ -39678,10 +39678,10 @@
         <v>70</v>
       </c>
       <c r="K763" s="72">
-        <v>54.408999999999999</v>
+        <v>54.409000000000006</v>
       </c>
       <c r="L763" s="72">
-        <v>79.088000000000022</v>
+        <v>79.088000000000008</v>
       </c>
       <c r="M763" s="72">
         <v>22.432000000000002</v>
@@ -45233,13 +45233,13 @@
         <v>2.609</v>
       </c>
       <c r="L893" s="72">
-        <v>69.247</v>
+        <v>69.247000000000014</v>
       </c>
       <c r="M893" s="72">
-        <v>65.941000000000003</v>
+        <v>65.940999999999988</v>
       </c>
       <c r="N893" s="72">
-        <v>71.855999999999995</v>
+        <v>71.856000000000009</v>
       </c>
     </row>
     <row r="894" spans="1:14" x14ac:dyDescent="0.25">
@@ -45277,7 +45277,7 @@
         <v>0</v>
       </c>
       <c r="M894" s="72">
-        <v>71.855999999999995</v>
+        <v>71.856000000000009</v>
       </c>
       <c r="N894" s="72">
         <v>0</v>
@@ -45438,7 +45438,7 @@
         <v>70</v>
       </c>
       <c r="K898" s="72">
-        <v>29.824999999999999</v>
+        <v>29.825000000000003</v>
       </c>
       <c r="L898" s="72">
         <v>81.465999999999994</v>
@@ -45482,16 +45482,16 @@
         <v>70</v>
       </c>
       <c r="K899" s="72">
-        <v>58.186999999999998</v>
+        <v>58.187000000000005</v>
       </c>
       <c r="L899" s="72">
-        <v>43.787000000000006</v>
+        <v>43.786999999999985</v>
       </c>
       <c r="M899" s="72">
-        <v>67.503999999999991</v>
+        <v>67.504000000000005</v>
       </c>
       <c r="N899" s="72">
-        <v>101.974</v>
+        <v>101.97399999999999</v>
       </c>
     </row>
     <row r="900" spans="1:14" x14ac:dyDescent="0.25">
@@ -45620,7 +45620,7 @@
         <v>36.549999999999997</v>
       </c>
       <c r="M902" s="72">
-        <v>39.382999999999996</v>
+        <v>39.383000000000003</v>
       </c>
       <c r="N902" s="72">
         <v>37.555999999999997</v>
@@ -45784,7 +45784,7 @@
         <v>59.784000000000013</v>
       </c>
       <c r="M906" s="72">
-        <v>26.238999999999997</v>
+        <v>26.239000000000004</v>
       </c>
       <c r="N906" s="72">
         <v>106.51400000000001</v>
@@ -45822,10 +45822,10 @@
         <v>70</v>
       </c>
       <c r="K907" s="72">
-        <v>20.510999999999999</v>
+        <v>20.511000000000003</v>
       </c>
       <c r="L907" s="72">
-        <v>73.429000000000016</v>
+        <v>73.429000000000002</v>
       </c>
       <c r="M907" s="72">
         <v>33.084999999999994</v>
@@ -45866,16 +45866,16 @@
         <v>70</v>
       </c>
       <c r="K908" s="72">
-        <v>60.198999999999998</v>
+        <v>60.199000000000005</v>
       </c>
       <c r="L908" s="72">
-        <v>34.143999999999991</v>
+        <v>34.144000000000013</v>
       </c>
       <c r="M908" s="72">
         <v>59.796000000000006</v>
       </c>
       <c r="N908" s="72">
-        <v>94.342999999999989</v>
+        <v>94.343000000000018</v>
       </c>
     </row>
     <row r="909" spans="1:14" x14ac:dyDescent="0.25">
@@ -45913,13 +45913,13 @@
         <v>16.507999999999999</v>
       </c>
       <c r="L909" s="72">
-        <v>54.471000000000004</v>
+        <v>54.471000000000018</v>
       </c>
       <c r="M909" s="72">
         <v>39.872</v>
       </c>
       <c r="N909" s="72">
-        <v>70.978999999999999</v>
+        <v>70.979000000000013</v>
       </c>
     </row>
     <row r="910" spans="1:14" x14ac:dyDescent="0.25">
@@ -46001,13 +46001,13 @@
         <v>0.76900000000000002</v>
       </c>
       <c r="L911" s="72">
-        <v>31.062000000000001</v>
+        <v>31.062000000000005</v>
       </c>
       <c r="M911" s="72">
-        <v>31.399000000000001</v>
+        <v>31.398999999999997</v>
       </c>
       <c r="N911" s="72">
-        <v>31.831</v>
+        <v>31.831000000000003</v>
       </c>
     </row>
     <row r="912" spans="1:14" x14ac:dyDescent="0.25">
@@ -46045,7 +46045,7 @@
         <v>0</v>
       </c>
       <c r="M912" s="72">
-        <v>31.831</v>
+        <v>31.831000000000003</v>
       </c>
       <c r="N912" s="72">
         <v>0</v>
@@ -46074,7 +46074,7 @@
         <v>70</v>
       </c>
       <c r="K913" s="72">
-        <v>43.069999999999993</v>
+        <v>43.07</v>
       </c>
       <c r="L913" s="72">
         <v>0</v>
@@ -46083,7 +46083,7 @@
         <v>0</v>
       </c>
       <c r="N913" s="72">
-        <v>43.069999999999993</v>
+        <v>43.07</v>
       </c>
     </row>
     <row r="914" spans="1:14" x14ac:dyDescent="0.25">
@@ -46121,13 +46121,13 @@
         <v>41.56</v>
       </c>
       <c r="L914" s="72">
-        <v>42.72</v>
+        <v>42.720000000000027</v>
       </c>
       <c r="M914" s="72">
         <v>0.35000000000000003</v>
       </c>
       <c r="N914" s="72">
-        <v>84.28</v>
+        <v>84.28000000000003</v>
       </c>
     </row>
     <row r="915" spans="1:14" x14ac:dyDescent="0.25">
@@ -46168,7 +46168,7 @@
         <v>58.552000000000007</v>
       </c>
       <c r="M915" s="72">
-        <v>25.728000000000002</v>
+        <v>25.727999999999998</v>
       </c>
       <c r="N915" s="72">
         <v>104.22800000000001</v>
@@ -46253,13 +46253,13 @@
         <v>52.319000000000003</v>
       </c>
       <c r="L917" s="72">
-        <v>32.611999999999995</v>
+        <v>32.612000000000009</v>
       </c>
       <c r="M917" s="72">
         <v>58.528000000000006</v>
       </c>
       <c r="N917" s="72">
-        <v>84.930999999999997</v>
+        <v>84.931000000000012</v>
       </c>
     </row>
     <row r="918" spans="1:14" x14ac:dyDescent="0.25">
@@ -46294,16 +46294,16 @@
         <v>70</v>
       </c>
       <c r="K918" s="72">
-        <v>15.916999999999998</v>
+        <v>15.917000000000002</v>
       </c>
       <c r="L918" s="72">
-        <v>48.394999999999996</v>
+        <v>48.394999999999982</v>
       </c>
       <c r="M918" s="72">
         <v>36.536000000000001</v>
       </c>
       <c r="N918" s="72">
-        <v>64.311999999999998</v>
+        <v>64.311999999999983</v>
       </c>
     </row>
     <row r="919" spans="1:14" x14ac:dyDescent="0.25">
@@ -46338,16 +46338,16 @@
         <v>70</v>
       </c>
       <c r="K919" s="72">
-        <v>13.686</v>
+        <v>13.686000000000002</v>
       </c>
       <c r="L919" s="72">
-        <v>43.874000000000002</v>
+        <v>43.873999999999988</v>
       </c>
       <c r="M919" s="72">
-        <v>20.437999999999999</v>
+        <v>20.438000000000002</v>
       </c>
       <c r="N919" s="72">
-        <v>57.56</v>
+        <v>57.559999999999988</v>
       </c>
     </row>
     <row r="920" spans="1:14" x14ac:dyDescent="0.25">
@@ -46549,13 +46549,13 @@
         <v>44.694000000000003</v>
       </c>
       <c r="L924" s="72">
-        <v>57.929000000000016</v>
+        <v>57.929000000000002</v>
       </c>
       <c r="M924" s="72">
         <v>25.436</v>
       </c>
       <c r="N924" s="72">
-        <v>102.62300000000002</v>
+        <v>102.623</v>
       </c>
     </row>
     <row r="925" spans="1:14" x14ac:dyDescent="0.25">
@@ -51764,7 +51764,7 @@
         <v>20.395</v>
       </c>
       <c r="M1046" s="72">
-        <v>25.814999999999998</v>
+        <v>25.815000000000001</v>
       </c>
       <c r="N1046" s="72">
         <v>24.061</v>
@@ -52016,7 +52016,7 @@
         <v>25.525999999999996</v>
       </c>
       <c r="M1052" s="72">
-        <v>127.92700000000002</v>
+        <v>127.92699999999999</v>
       </c>
       <c r="N1052" s="72">
         <v>71.320999999999998</v>
@@ -52054,10 +52054,10 @@
         <v>70</v>
       </c>
       <c r="K1053" s="72">
-        <v>76.057000000000002</v>
+        <v>76.056999999999988</v>
       </c>
       <c r="L1053" s="72">
-        <v>57.068999999999974</v>
+        <v>57.068999999999988</v>
       </c>
       <c r="M1053" s="72">
         <v>14.251999999999999</v>
@@ -52309,13 +52309,13 @@
         <v>78.012</v>
       </c>
       <c r="L1059" s="72">
-        <v>60.147999999999968</v>
+        <v>60.148000000000025</v>
       </c>
       <c r="M1059" s="72">
         <v>10.126000000000001</v>
       </c>
       <c r="N1059" s="72">
-        <v>138.15999999999997</v>
+        <v>138.16000000000003</v>
       </c>
     </row>
     <row r="1060" spans="1:14" x14ac:dyDescent="0.25">
@@ -52350,16 +52350,16 @@
         <v>70</v>
       </c>
       <c r="K1060" s="72">
-        <v>54.04</v>
+        <v>54.040000000000006</v>
       </c>
       <c r="L1060" s="72">
-        <v>79.302999999999997</v>
+        <v>79.303000000000011</v>
       </c>
       <c r="M1060" s="72">
         <v>58.856999999999999</v>
       </c>
       <c r="N1060" s="72">
-        <v>133.34299999999999</v>
+        <v>133.34300000000002</v>
       </c>
     </row>
     <row r="1061" spans="1:14" x14ac:dyDescent="0.25">
@@ -52394,16 +52394,16 @@
         <v>70</v>
       </c>
       <c r="K1061" s="72">
-        <v>22.032</v>
+        <v>22.032000000000004</v>
       </c>
       <c r="L1061" s="72">
-        <v>28.579999999999995</v>
+        <v>28.58</v>
       </c>
       <c r="M1061" s="72">
         <v>104.76300000000001</v>
       </c>
       <c r="N1061" s="72">
-        <v>50.611999999999995</v>
+        <v>50.612000000000002</v>
       </c>
     </row>
     <row r="1062" spans="1:14" x14ac:dyDescent="0.25">
@@ -52441,13 +52441,13 @@
         <v>49.186</v>
       </c>
       <c r="L1062" s="72">
-        <v>37.266999999999989</v>
+        <v>37.267000000000003</v>
       </c>
       <c r="M1062" s="72">
         <v>13.345000000000001</v>
       </c>
       <c r="N1062" s="72">
-        <v>86.452999999999989</v>
+        <v>86.453000000000003</v>
       </c>
     </row>
     <row r="1063" spans="1:14" x14ac:dyDescent="0.25">
@@ -52482,13 +52482,13 @@
         <v>70</v>
       </c>
       <c r="K1063" s="72">
-        <v>10.519</v>
+        <v>10.519000000000002</v>
       </c>
       <c r="L1063" s="72">
-        <v>47.631000000000007</v>
+        <v>47.631</v>
       </c>
       <c r="M1063" s="72">
-        <v>38.821999999999996</v>
+        <v>38.822000000000003</v>
       </c>
       <c r="N1063" s="72">
         <v>58.150000000000006</v>
@@ -52529,13 +52529,13 @@
         <v>2.9000000000000004</v>
       </c>
       <c r="L1064" s="72">
-        <v>25.604000000000006</v>
+        <v>25.603999999999999</v>
       </c>
       <c r="M1064" s="72">
-        <v>32.545999999999992</v>
+        <v>32.545999999999999</v>
       </c>
       <c r="N1064" s="72">
-        <v>28.504000000000005</v>
+        <v>28.504000000000001</v>
       </c>
     </row>
     <row r="1065" spans="1:14" x14ac:dyDescent="0.25">
@@ -52573,7 +52573,7 @@
         <v>0</v>
       </c>
       <c r="M1065" s="72">
-        <v>28.504000000000005</v>
+        <v>28.504000000000001</v>
       </c>
       <c r="N1065" s="72">
         <v>0</v>
@@ -52602,7 +52602,7 @@
         <v>70</v>
       </c>
       <c r="K1066" s="72">
-        <v>33.651000000000003</v>
+        <v>33.650999999999996</v>
       </c>
       <c r="L1066" s="72">
         <v>0</v>
@@ -52611,7 +52611,7 @@
         <v>0</v>
       </c>
       <c r="N1066" s="72">
-        <v>33.651000000000003</v>
+        <v>33.650999999999996</v>
       </c>
     </row>
     <row r="1067" spans="1:14" x14ac:dyDescent="0.25">
@@ -52649,13 +52649,13 @@
         <v>38.28</v>
       </c>
       <c r="L1067" s="72">
-        <v>30.680000000000007</v>
+        <v>30.679999999999993</v>
       </c>
       <c r="M1067" s="72">
         <v>2.9710000000000001</v>
       </c>
       <c r="N1067" s="72">
-        <v>68.960000000000008</v>
+        <v>68.959999999999994</v>
       </c>
     </row>
     <row r="1068" spans="1:14" x14ac:dyDescent="0.25">
@@ -52693,13 +52693,13 @@
         <v>57.597999999999999</v>
       </c>
       <c r="L1068" s="72">
-        <v>59.757000000000005</v>
+        <v>59.757000000000019</v>
       </c>
       <c r="M1068" s="72">
         <v>9.2029999999999994</v>
       </c>
       <c r="N1068" s="72">
-        <v>117.355</v>
+        <v>117.35500000000002</v>
       </c>
     </row>
     <row r="1069" spans="1:14" x14ac:dyDescent="0.25">
@@ -52737,13 +52737,13 @@
         <v>52.567</v>
       </c>
       <c r="L1069" s="72">
-        <v>75.182999999999993</v>
+        <v>75.183000000000021</v>
       </c>
       <c r="M1069" s="72">
         <v>42.171999999999997</v>
       </c>
       <c r="N1069" s="72">
-        <v>127.75</v>
+        <v>127.75000000000001</v>
       </c>
     </row>
     <row r="1070" spans="1:14" x14ac:dyDescent="0.25">
@@ -52784,7 +52784,7 @@
         <v>25.007999999999999</v>
       </c>
       <c r="M1070" s="72">
-        <v>102.742</v>
+        <v>102.74200000000002</v>
       </c>
       <c r="N1070" s="72">
         <v>44.963999999999999</v>
@@ -52825,13 +52825,13 @@
         <v>44.945</v>
       </c>
       <c r="L1071" s="72">
-        <v>31.850000000000016</v>
+        <v>31.85</v>
       </c>
       <c r="M1071" s="72">
         <v>13.114000000000001</v>
       </c>
       <c r="N1071" s="72">
-        <v>76.795000000000016</v>
+        <v>76.795000000000002</v>
       </c>
     </row>
     <row r="1072" spans="1:14" x14ac:dyDescent="0.25">
@@ -52869,13 +52869,13 @@
         <v>7.8379999999999992</v>
       </c>
       <c r="L1072" s="72">
-        <v>41.012000000000008</v>
+        <v>41.012</v>
       </c>
       <c r="M1072" s="72">
         <v>35.783000000000001</v>
       </c>
       <c r="N1072" s="72">
-        <v>48.850000000000009</v>
+        <v>48.85</v>
       </c>
     </row>
     <row r="1073" spans="1:14" x14ac:dyDescent="0.25">
@@ -52986,7 +52986,7 @@
         <v>70</v>
       </c>
       <c r="K1075" s="72">
-        <v>33.401000000000003</v>
+        <v>33.400999999999996</v>
       </c>
       <c r="L1075" s="72">
         <v>0</v>
@@ -52995,7 +52995,7 @@
         <v>0</v>
       </c>
       <c r="N1075" s="72">
-        <v>33.401000000000003</v>
+        <v>33.400999999999996</v>
       </c>
     </row>
     <row r="1076" spans="1:14" x14ac:dyDescent="0.25">
@@ -53030,7 +53030,7 @@
         <v>70</v>
       </c>
       <c r="K1076" s="72">
-        <v>37.879000000000005</v>
+        <v>37.878999999999991</v>
       </c>
       <c r="L1076" s="72">
         <v>30.444999999999993</v>
@@ -53039,7 +53039,7 @@
         <v>2.9559999999999995</v>
       </c>
       <c r="N1076" s="72">
-        <v>68.323999999999998</v>
+        <v>68.323999999999984</v>
       </c>
     </row>
     <row r="1077" spans="1:14" x14ac:dyDescent="0.25">
@@ -53074,13 +53074,13 @@
         <v>70</v>
       </c>
       <c r="K1077" s="72">
-        <v>54.006</v>
+        <v>54.006000000000007</v>
       </c>
       <c r="L1077" s="72">
-        <v>59.318999999999988</v>
+        <v>59.318999999999981</v>
       </c>
       <c r="M1077" s="72">
-        <v>9.0050000000000008</v>
+        <v>9.004999999999999</v>
       </c>
       <c r="N1077" s="72">
         <v>113.32499999999999</v>
@@ -53118,10 +53118,10 @@
         <v>70</v>
       </c>
       <c r="K1078" s="72">
-        <v>50.74</v>
+        <v>50.739999999999995</v>
       </c>
       <c r="L1078" s="72">
-        <v>73.87299999999999</v>
+        <v>73.873000000000005</v>
       </c>
       <c r="M1078" s="72">
         <v>39.451999999999998</v>
@@ -57814,7 +57814,7 @@
         <v>70</v>
       </c>
       <c r="K1188" s="72">
-        <v>52.542000000000002</v>
+        <v>52.541999999999994</v>
       </c>
       <c r="L1188" s="72">
         <v>64.756</v>
@@ -57823,7 +57823,7 @@
         <v>0</v>
       </c>
       <c r="N1188" s="72">
-        <v>117.298</v>
+        <v>117.29799999999999</v>
       </c>
     </row>
     <row r="1189" spans="1:14" x14ac:dyDescent="0.25">
@@ -57905,13 +57905,13 @@
         <v>3.899</v>
       </c>
       <c r="L1190" s="72">
-        <v>30.504000000000005</v>
+        <v>30.503999999999998</v>
       </c>
       <c r="M1190" s="72">
-        <v>37.407000000000004</v>
+        <v>37.406999999999996</v>
       </c>
       <c r="N1190" s="72">
-        <v>34.403000000000006</v>
+        <v>34.402999999999999</v>
       </c>
     </row>
     <row r="1191" spans="1:14" x14ac:dyDescent="0.25">
@@ -57949,7 +57949,7 @@
         <v>0</v>
       </c>
       <c r="M1191" s="72">
-        <v>34.403000000000006</v>
+        <v>34.402999999999999</v>
       </c>
       <c r="N1191" s="72">
         <v>0</v>
@@ -58069,13 +58069,13 @@
         <v>64.832999999999998</v>
       </c>
       <c r="L1194" s="72">
-        <v>64.455999999999989</v>
+        <v>64.456000000000017</v>
       </c>
       <c r="M1194" s="72">
-        <v>8.234</v>
+        <v>8.2340000000000018</v>
       </c>
       <c r="N1194" s="72">
-        <v>129.28899999999999</v>
+        <v>129.28900000000002</v>
       </c>
     </row>
     <row r="1195" spans="1:14" x14ac:dyDescent="0.25">
@@ -58113,13 +58113,13 @@
         <v>29.381</v>
       </c>
       <c r="L1195" s="72">
-        <v>64.78100000000002</v>
+        <v>64.781000000000006</v>
       </c>
       <c r="M1195" s="72">
-        <v>64.50800000000001</v>
+        <v>64.507999999999996</v>
       </c>
       <c r="N1195" s="72">
-        <v>94.16200000000002</v>
+        <v>94.162000000000006</v>
       </c>
     </row>
     <row r="1196" spans="1:14" x14ac:dyDescent="0.25">
@@ -58201,13 +58201,13 @@
         <v>46.137999999999991</v>
       </c>
       <c r="L1197" s="72">
-        <v>43.067000000000007</v>
+        <v>43.066999999999993</v>
       </c>
       <c r="M1197" s="72">
         <v>44.998000000000005</v>
       </c>
       <c r="N1197" s="72">
-        <v>89.204999999999998</v>
+        <v>89.204999999999984</v>
       </c>
     </row>
     <row r="1198" spans="1:14" x14ac:dyDescent="0.25">
@@ -58242,16 +58242,16 @@
         <v>70</v>
       </c>
       <c r="K1198" s="72">
-        <v>14.074</v>
+        <v>14.074000000000002</v>
       </c>
       <c r="L1198" s="72">
-        <v>47.318000000000005</v>
+        <v>47.317999999999998</v>
       </c>
       <c r="M1198" s="72">
         <v>41.887</v>
       </c>
       <c r="N1198" s="72">
-        <v>61.392000000000003</v>
+        <v>61.391999999999996</v>
       </c>
     </row>
     <row r="1199" spans="1:14" x14ac:dyDescent="0.25">
@@ -58289,13 +58289,13 @@
         <v>3.1179999999999999</v>
       </c>
       <c r="L1199" s="72">
-        <v>27.584</v>
+        <v>27.584000000000003</v>
       </c>
       <c r="M1199" s="72">
-        <v>33.808000000000007</v>
+        <v>33.808</v>
       </c>
       <c r="N1199" s="72">
-        <v>30.701999999999998</v>
+        <v>30.702000000000002</v>
       </c>
     </row>
     <row r="1200" spans="1:14" x14ac:dyDescent="0.25">
@@ -58333,7 +58333,7 @@
         <v>0</v>
       </c>
       <c r="M1200" s="72">
-        <v>30.701999999999998</v>
+        <v>30.702000000000002</v>
       </c>
       <c r="N1200" s="72">
         <v>0</v>
@@ -58362,7 +58362,7 @@
         <v>70</v>
       </c>
       <c r="K1201" s="72">
-        <v>38.384999999999998</v>
+        <v>38.385000000000005</v>
       </c>
       <c r="L1201" s="72">
         <v>0</v>
@@ -58371,7 +58371,7 @@
         <v>0</v>
       </c>
       <c r="N1201" s="72">
-        <v>38.384999999999998</v>
+        <v>38.385000000000005</v>
       </c>
     </row>
     <row r="1202" spans="1:14" x14ac:dyDescent="0.25">
@@ -58450,16 +58450,16 @@
         <v>70</v>
       </c>
       <c r="K1203" s="72">
-        <v>61.952000000000005</v>
+        <v>61.951999999999998</v>
       </c>
       <c r="L1203" s="72">
-        <v>63.737999999999978</v>
+        <v>63.738</v>
       </c>
       <c r="M1203" s="72">
         <v>14.429</v>
       </c>
       <c r="N1203" s="72">
-        <v>125.68999999999998</v>
+        <v>125.69</v>
       </c>
     </row>
     <row r="1204" spans="1:14" x14ac:dyDescent="0.25">
@@ -58541,13 +58541,13 @@
         <v>53.247</v>
       </c>
       <c r="L1205" s="72">
-        <v>31.708999999999989</v>
+        <v>31.709000000000003</v>
       </c>
       <c r="M1205" s="72">
         <v>63.502000000000002</v>
       </c>
       <c r="N1205" s="72">
-        <v>84.955999999999989</v>
+        <v>84.956000000000003</v>
       </c>
     </row>
     <row r="1206" spans="1:14" x14ac:dyDescent="0.25">
@@ -58588,7 +58588,7 @@
         <v>43.214000000000013</v>
       </c>
       <c r="M1206" s="72">
-        <v>41.741999999999997</v>
+        <v>41.742000000000004</v>
       </c>
       <c r="N1206" s="72">
         <v>88.25200000000001</v>
@@ -58626,7 +58626,7 @@
         <v>70</v>
       </c>
       <c r="K1207" s="72">
-        <v>8.7769999999999992</v>
+        <v>8.777000000000001</v>
       </c>
       <c r="L1207" s="72">
         <v>48.774000000000001</v>
@@ -58673,13 +58673,13 @@
         <v>2.96</v>
       </c>
       <c r="L1208" s="72">
-        <v>25.861000000000001</v>
+        <v>25.860999999999997</v>
       </c>
       <c r="M1208" s="72">
-        <v>31.689999999999998</v>
+        <v>31.69</v>
       </c>
       <c r="N1208" s="72">
-        <v>28.821000000000002</v>
+        <v>28.820999999999998</v>
       </c>
     </row>
     <row r="1209" spans="1:14" x14ac:dyDescent="0.25">
@@ -58717,7 +58717,7 @@
         <v>0</v>
       </c>
       <c r="M1209" s="72">
-        <v>28.821000000000002</v>
+        <v>28.820999999999998</v>
       </c>
       <c r="N1209" s="72">
         <v>0</v>
@@ -58746,7 +58746,7 @@
         <v>70</v>
       </c>
       <c r="K1210" s="72">
-        <v>36.563999999999993</v>
+        <v>36.564</v>
       </c>
       <c r="L1210" s="72">
         <v>0</v>
@@ -58755,7 +58755,7 @@
         <v>0</v>
       </c>
       <c r="N1210" s="72">
-        <v>36.563999999999993</v>
+        <v>36.564</v>
       </c>
     </row>
     <row r="1211" spans="1:14" x14ac:dyDescent="0.25">
@@ -58790,16 +58790,16 @@
         <v>70</v>
       </c>
       <c r="K1211" s="72">
-        <v>40.427000000000007</v>
+        <v>40.427</v>
       </c>
       <c r="L1211" s="72">
-        <v>33.439999999999984</v>
+        <v>33.440000000000005</v>
       </c>
       <c r="M1211" s="72">
         <v>3.1239999999999997</v>
       </c>
       <c r="N1211" s="72">
-        <v>73.86699999999999</v>
+        <v>73.867000000000004</v>
       </c>
     </row>
     <row r="1212" spans="1:14" x14ac:dyDescent="0.25">
@@ -58837,13 +58837,13 @@
         <v>68.066000000000003</v>
       </c>
       <c r="L1212" s="72">
-        <v>63.490000000000009</v>
+        <v>63.489999999999981</v>
       </c>
       <c r="M1212" s="72">
-        <v>10.377000000000001</v>
+        <v>10.376999999999999</v>
       </c>
       <c r="N1212" s="72">
-        <v>131.55600000000001</v>
+        <v>131.55599999999998</v>
       </c>
     </row>
     <row r="1213" spans="1:14" x14ac:dyDescent="0.25">
@@ -58878,10 +58878,10 @@
         <v>70</v>
       </c>
       <c r="K1213" s="72">
-        <v>29.610999999999997</v>
+        <v>29.611000000000001</v>
       </c>
       <c r="L1213" s="72">
-        <v>62.807000000000009</v>
+        <v>62.807000000000002</v>
       </c>
       <c r="M1213" s="72">
         <v>68.748999999999995</v>
@@ -58925,13 +58925,13 @@
         <v>52.227999999999994</v>
       </c>
       <c r="L1214" s="72">
-        <v>29.341000000000022</v>
+        <v>29.340999999999994</v>
       </c>
       <c r="M1214" s="72">
-        <v>63.077000000000005</v>
+        <v>63.077000000000012</v>
       </c>
       <c r="N1214" s="72">
-        <v>81.569000000000017</v>
+        <v>81.568999999999988</v>
       </c>
     </row>
     <row r="1215" spans="1:14" x14ac:dyDescent="0.25">
@@ -59177,13 +59177,13 @@
         <v>39.289000000000001</v>
       </c>
       <c r="L1220" s="72">
-        <v>32.867999999999981</v>
+        <v>32.867999999999995</v>
       </c>
       <c r="M1220" s="72">
         <v>3.0939999999999999</v>
       </c>
       <c r="N1220" s="72">
-        <v>72.156999999999982</v>
+        <v>72.156999999999996</v>
       </c>
     </row>
     <row r="1221" spans="1:14" x14ac:dyDescent="0.25">
@@ -66105,13 +66105,13 @@
         <v>0</v>
       </c>
       <c r="G6" s="72">
-        <v>258.13925000000017</v>
+        <v>258.13925000000023</v>
       </c>
       <c r="H6" s="72">
         <v>420</v>
       </c>
       <c r="I6" s="76">
-        <v>0.61461726190476229</v>
+        <v>0.6146172619047624</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -66134,13 +66134,13 @@
         <v>0</v>
       </c>
       <c r="G7" s="72">
-        <v>46.930250000000008</v>
+        <v>46.930249999999994</v>
       </c>
       <c r="H7" s="72">
         <v>350</v>
       </c>
       <c r="I7" s="76">
-        <v>0.13408642857142861</v>
+        <v>0.13408642857142855</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -66221,13 +66221,13 @@
         <v>0</v>
       </c>
       <c r="G10" s="72">
-        <v>296.44324999999981</v>
+        <v>296.44325000000032</v>
       </c>
       <c r="H10" s="72">
         <v>420</v>
       </c>
       <c r="I10" s="76">
-        <v>0.70581726190476146</v>
+        <v>0.70581726190476268</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -66250,13 +66250,13 @@
         <v>0</v>
       </c>
       <c r="G11" s="72">
-        <v>76.063999999999965</v>
+        <v>76.063999999999979</v>
       </c>
       <c r="H11" s="72">
         <v>350</v>
       </c>
       <c r="I11" s="76">
-        <v>0.21732571428571418</v>
+        <v>0.21732571428571423</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -66395,13 +66395,13 @@
         <v>0</v>
       </c>
       <c r="G16" s="72">
-        <v>359.2242499999997</v>
+        <v>359.22425000000072</v>
       </c>
       <c r="H16" s="72">
         <v>420</v>
       </c>
       <c r="I16" s="76">
-        <v>0.85529583333333259</v>
+        <v>0.85529583333333503</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -66424,13 +66424,13 @@
         <v>0</v>
       </c>
       <c r="G17" s="72">
-        <v>119.00425000000006</v>
+        <v>119.00424999999981</v>
       </c>
       <c r="H17" s="72">
         <v>350</v>
       </c>
       <c r="I17" s="76">
-        <v>0.34001214285714304</v>
+        <v>0.34001214285714232</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -66482,13 +66482,13 @@
         <v>0</v>
       </c>
       <c r="G19" s="72">
-        <v>50.377999999999993</v>
+        <v>50.377999999999986</v>
       </c>
       <c r="H19" s="72">
         <v>210</v>
       </c>
       <c r="I19" s="76">
-        <v>0.23989523809523805</v>
+        <v>0.23989523809523802</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -66511,13 +66511,13 @@
         <v>0</v>
       </c>
       <c r="G20" s="72">
-        <v>103.20675000000008</v>
+        <v>103.20675000000001</v>
       </c>
       <c r="H20" s="72">
         <v>210</v>
       </c>
       <c r="I20" s="76">
-        <v>0.49146071428571469</v>
+        <v>0.49146071428571436</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -66627,13 +66627,13 @@
         <v>0</v>
       </c>
       <c r="G24" s="72">
-        <v>61.135749999999994</v>
+        <v>61.135749999999987</v>
       </c>
       <c r="H24" s="72">
         <v>210</v>
       </c>
       <c r="I24" s="76">
-        <v>0.29112261904761905</v>
+        <v>0.29112261904761899</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -66656,13 +66656,13 @@
         <v>0</v>
       </c>
       <c r="G25" s="72">
-        <v>43.85349999999999</v>
+        <v>43.853500000000025</v>
       </c>
       <c r="H25" s="72">
         <v>210</v>
       </c>
       <c r="I25" s="76">
-        <v>0.20882619047619042</v>
+        <v>0.20882619047619061</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -66801,13 +66801,13 @@
         <v>0</v>
       </c>
       <c r="G30" s="72">
-        <v>178.53649999999979</v>
+        <v>178.53650000000005</v>
       </c>
       <c r="H30" s="72">
         <v>210</v>
       </c>
       <c r="I30" s="76">
-        <v>0.8501738095238085</v>
+        <v>0.85017380952380972</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -66830,13 +66830,13 @@
         <v>0</v>
       </c>
       <c r="G31" s="72">
-        <v>126.28974999999994</v>
+        <v>126.28975000000007</v>
       </c>
       <c r="H31" s="72">
         <v>210</v>
       </c>
       <c r="I31" s="76">
-        <v>0.60137976190476161</v>
+        <v>0.60137976190476228</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -66859,13 +66859,13 @@
         <v>0</v>
       </c>
       <c r="G32" s="72">
-        <v>129.22674999999995</v>
+        <v>129.22674999999998</v>
       </c>
       <c r="H32" s="72">
         <v>210</v>
       </c>
       <c r="I32" s="76">
-        <v>0.61536547619047599</v>
+        <v>0.6153654761904761</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -66888,13 +66888,13 @@
         <v>0</v>
       </c>
       <c r="G33" s="72">
-        <v>179.14500000000012</v>
+        <v>179.14500000000007</v>
       </c>
       <c r="H33" s="72">
         <v>210</v>
       </c>
       <c r="I33" s="76">
-        <v>0.85307142857142915</v>
+        <v>0.85307142857142892</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -66917,13 +66917,13 @@
         <v>0</v>
       </c>
       <c r="G34" s="72">
-        <v>570.73374999999999</v>
+        <v>570.73375000000124</v>
       </c>
       <c r="H34" s="72">
         <v>630</v>
       </c>
       <c r="I34" s="76">
-        <v>0.90592658730158726</v>
+        <v>0.90592658730158926</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -66975,13 +66975,13 @@
         <v>0</v>
       </c>
       <c r="G36" s="72">
-        <v>85.914249999999967</v>
+        <v>85.914250000000052</v>
       </c>
       <c r="H36" s="72">
         <v>210</v>
       </c>
       <c r="I36" s="76">
-        <v>0.40911547619047606</v>
+        <v>0.40911547619047645</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -67004,13 +67004,13 @@
         <v>0</v>
       </c>
       <c r="G37" s="72">
-        <v>120.77799999999998</v>
+        <v>120.77799999999988</v>
       </c>
       <c r="H37" s="72">
         <v>210</v>
       </c>
       <c r="I37" s="76">
-        <v>0.57513333333333327</v>
+        <v>0.57513333333333272</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -67033,13 +67033,13 @@
         <v>0</v>
       </c>
       <c r="G38" s="72">
-        <v>139.79625000000004</v>
+        <v>139.79624999999999</v>
       </c>
       <c r="H38" s="72">
         <v>210</v>
       </c>
       <c r="I38" s="76">
-        <v>0.66569642857142874</v>
+        <v>0.66569642857142852</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -67062,13 +67062,13 @@
         <v>0</v>
       </c>
       <c r="G39" s="72">
-        <v>93.916250000000005</v>
+        <v>93.916250000000048</v>
       </c>
       <c r="H39" s="72">
         <v>210</v>
       </c>
       <c r="I39" s="76">
-        <v>0.44722023809523814</v>
+        <v>0.44722023809523831</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -67120,13 +67120,13 @@
         <v>0</v>
       </c>
       <c r="G41" s="72">
-        <v>63.39374999999999</v>
+        <v>63.393750000000004</v>
       </c>
       <c r="H41" s="72">
         <v>210</v>
       </c>
       <c r="I41" s="76">
-        <v>0.30187499999999995</v>
+        <v>0.301875</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -67236,13 +67236,13 @@
         <v>0</v>
       </c>
       <c r="G45" s="72">
-        <v>38.313249999999989</v>
+        <v>38.313249999999975</v>
       </c>
       <c r="H45" s="72">
         <v>140</v>
       </c>
       <c r="I45" s="76">
-        <v>0.27366607142857136</v>
+        <v>0.27366607142857124</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -67265,13 +67265,13 @@
         <v>0</v>
       </c>
       <c r="G46" s="72">
-        <v>345.09499999999969</v>
+        <v>345.09499999999986</v>
       </c>
       <c r="H46" s="72">
         <v>420</v>
       </c>
       <c r="I46" s="76">
-        <v>0.82165476190476117</v>
+        <v>0.82165476190476161</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -67294,13 +67294,13 @@
         <v>0</v>
       </c>
       <c r="G47" s="72">
-        <v>257.17799999999988</v>
+        <v>257.17799999999983</v>
       </c>
       <c r="H47" s="72">
         <v>350</v>
       </c>
       <c r="I47" s="76">
-        <v>0.7347942857142854</v>
+        <v>0.73479428571428518</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -67323,13 +67323,13 @@
         <v>0</v>
       </c>
       <c r="G48" s="72">
-        <v>102.36574999999999</v>
+        <v>102.36574999999995</v>
       </c>
       <c r="H48" s="72">
         <v>140</v>
       </c>
       <c r="I48" s="76">
-        <v>0.73118392857142855</v>
+        <v>0.73118392857142822</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
@@ -67352,13 +67352,13 @@
         <v>0</v>
       </c>
       <c r="G49" s="72">
-        <v>154.27125000000021</v>
+        <v>154.27124999999995</v>
       </c>
       <c r="H49" s="72">
         <v>210</v>
       </c>
       <c r="I49" s="76">
-        <v>0.73462500000000097</v>
+        <v>0.73462499999999975</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -67381,13 +67381,13 @@
         <v>0</v>
       </c>
       <c r="G50" s="72">
-        <v>255.08224999999996</v>
+        <v>255.08224999999987</v>
       </c>
       <c r="H50" s="72">
         <v>420</v>
       </c>
       <c r="I50" s="76">
-        <v>0.60733869047619038</v>
+        <v>0.60733869047619016</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -67410,13 +67410,13 @@
         <v>0</v>
       </c>
       <c r="G51" s="72">
-        <v>384.44825000000031</v>
+        <v>384.44825000000009</v>
       </c>
       <c r="H51" s="72">
         <v>420</v>
       </c>
       <c r="I51" s="76">
-        <v>0.91535297619047695</v>
+        <v>0.9153529761904764</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
@@ -67439,13 +67439,13 @@
         <v>0</v>
       </c>
       <c r="G52" s="72">
-        <v>314.92624999999975</v>
+        <v>314.92625000000015</v>
       </c>
       <c r="H52" s="72">
         <v>630</v>
       </c>
       <c r="I52" s="76">
-        <v>0.49988293650793614</v>
+        <v>0.49988293650793675</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -67468,13 +67468,13 @@
         <v>0</v>
       </c>
       <c r="G53" s="72">
-        <v>362.10974999999968</v>
+        <v>362.10974999999979</v>
       </c>
       <c r="H53" s="72">
         <v>630</v>
       </c>
       <c r="I53" s="76">
-        <v>0.5747773809523804</v>
+        <v>0.57477738095238062</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -67555,13 +67555,13 @@
         <v>0</v>
       </c>
       <c r="G56" s="72">
-        <v>128.22174999999996</v>
+        <v>128.22175000000013</v>
       </c>
       <c r="H56" s="72">
         <v>210</v>
       </c>
       <c r="I56" s="76">
-        <v>0.61057976190476171</v>
+        <v>0.61057976190476249</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
@@ -67584,13 +67584,13 @@
         <v>0</v>
       </c>
       <c r="G57" s="72">
-        <v>166.96600000000001</v>
+        <v>166.96599999999998</v>
       </c>
       <c r="H57" s="72">
         <v>210</v>
       </c>
       <c r="I57" s="76">
-        <v>0.79507619047619049</v>
+        <v>0.79507619047619038</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -67671,13 +67671,13 @@
         <v>0</v>
       </c>
       <c r="G60" s="72">
-        <v>126.13050000000014</v>
+        <v>126.13050000000003</v>
       </c>
       <c r="H60" s="72">
         <v>210</v>
       </c>
       <c r="I60" s="76">
-        <v>0.60062142857142919</v>
+        <v>0.60062142857142875</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -67700,13 +67700,13 @@
         <v>0</v>
       </c>
       <c r="G61" s="72">
-        <v>79.263999999999982</v>
+        <v>79.264000000000024</v>
       </c>
       <c r="H61" s="72">
         <v>140</v>
       </c>
       <c r="I61" s="76">
-        <v>0.56617142857142844</v>
+        <v>0.56617142857142877</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -67787,13 +67787,13 @@
         <v>0</v>
       </c>
       <c r="G64" s="72">
-        <v>195.95650000000006</v>
+        <v>195.95650000000009</v>
       </c>
       <c r="H64" s="72">
         <v>210</v>
       </c>
       <c r="I64" s="76">
-        <v>0.93312619047619072</v>
+        <v>0.93312619047619094</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -67816,13 +67816,13 @@
         <v>0</v>
       </c>
       <c r="G65" s="72">
-        <v>119.30224999999999</v>
+        <v>119.30224999999992</v>
       </c>
       <c r="H65" s="72">
         <v>210</v>
       </c>
       <c r="I65" s="76">
-        <v>0.56810595238095229</v>
+        <v>0.56810595238095196</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -67845,13 +67845,13 @@
         <v>0</v>
       </c>
       <c r="G66" s="72">
-        <v>71.546749999999975</v>
+        <v>71.546749999999989</v>
       </c>
       <c r="H66" s="72">
         <v>210</v>
       </c>
       <c r="I66" s="76">
-        <v>0.34069880952380938</v>
+        <v>0.34069880952380949</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
@@ -67874,13 +67874,13 @@
         <v>0</v>
       </c>
       <c r="G67" s="72">
-        <v>110.01475000000002</v>
+        <v>110.01474999999999</v>
       </c>
       <c r="H67" s="72">
         <v>210</v>
       </c>
       <c r="I67" s="76">
-        <v>0.52387976190476204</v>
+        <v>0.52387976190476182</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
@@ -67961,13 +67961,13 @@
         <v>0</v>
       </c>
       <c r="G70" s="72">
-        <v>234.0017499999999</v>
+        <v>234.00174999999996</v>
       </c>
       <c r="H70" s="72">
         <v>420</v>
       </c>
       <c r="I70" s="76">
-        <v>0.55714702380952352</v>
+        <v>0.55714702380952374</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
@@ -67990,13 +67990,13 @@
         <v>0</v>
       </c>
       <c r="G71" s="72">
-        <v>152.06025</v>
+        <v>152.06025000000011</v>
       </c>
       <c r="H71" s="72">
         <v>420</v>
       </c>
       <c r="I71" s="76">
-        <v>0.36204821428571426</v>
+        <v>0.36204821428571454</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
@@ -68019,13 +68019,13 @@
         <v>0</v>
       </c>
       <c r="G72" s="72">
-        <v>45.395250000000019</v>
+        <v>45.39524999999999</v>
       </c>
       <c r="H72" s="72">
         <v>210</v>
       </c>
       <c r="I72" s="76">
-        <v>0.21616785714285724</v>
+        <v>0.21616785714285711</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
@@ -68048,13 +68048,13 @@
         <v>0</v>
       </c>
       <c r="G73" s="72">
-        <v>56.678000000000011</v>
+        <v>56.67799999999999</v>
       </c>
       <c r="H73" s="72">
         <v>210</v>
       </c>
       <c r="I73" s="76">
-        <v>0.26989523809523813</v>
+        <v>0.26989523809523802</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
@@ -68193,13 +68193,13 @@
         <v>0</v>
       </c>
       <c r="G78" s="72">
-        <v>54.477750000000036</v>
+        <v>54.47775</v>
       </c>
       <c r="H78" s="72">
         <v>210</v>
       </c>
       <c r="I78" s="76">
-        <v>0.25941785714285731</v>
+        <v>0.25941785714285714</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -68309,13 +68309,13 @@
         <v>0</v>
       </c>
       <c r="G82" s="72">
-        <v>192.11725000000007</v>
+        <v>192.11725000000001</v>
       </c>
       <c r="H82" s="72">
         <v>210</v>
       </c>
       <c r="I82" s="76">
-        <v>0.91484404761904792</v>
+        <v>0.9148440476190477</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
@@ -68367,13 +68367,13 @@
         <v>0</v>
       </c>
       <c r="G84" s="72">
-        <v>168.25124999999997</v>
+        <v>168.25125000000008</v>
       </c>
       <c r="H84" s="72">
         <v>210</v>
       </c>
       <c r="I84" s="76">
-        <v>0.80119642857142848</v>
+        <v>0.80119642857142892</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
@@ -68396,13 +68396,13 @@
         <v>0</v>
       </c>
       <c r="G85" s="72">
-        <v>40.552000000000021</v>
+        <v>40.552000000000007</v>
       </c>
       <c r="H85" s="72">
         <v>210</v>
       </c>
       <c r="I85" s="76">
-        <v>0.193104761904762</v>
+        <v>0.19310476190476195</v>
       </c>
     </row>
   </sheetData>
